--- a/Code/Results/Cases/Case_5_33/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_33/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9678450266488479</v>
+        <v>0.9772758579528116</v>
       </c>
       <c r="D2">
-        <v>0.9929685465461846</v>
+        <v>0.9999923252583388</v>
       </c>
       <c r="E2">
-        <v>0.9779054025060631</v>
+        <v>0.9843546027718559</v>
       </c>
       <c r="F2">
-        <v>0.9429088653235963</v>
+        <v>0.9528828289321093</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032951007506882</v>
+        <v>1.034844666560698</v>
       </c>
       <c r="J2">
-        <v>0.9910319471723079</v>
+        <v>1.000158158437748</v>
       </c>
       <c r="K2">
-        <v>1.004526717743275</v>
+        <v>1.011451767003176</v>
       </c>
       <c r="L2">
-        <v>0.9896813805544433</v>
+        <v>0.9960362935438076</v>
       </c>
       <c r="M2">
-        <v>0.9552253529451301</v>
+        <v>0.9650400953575837</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.977288732430916</v>
+        <v>0.9874394944712543</v>
       </c>
       <c r="D3">
-        <v>0.9999107897917652</v>
+        <v>1.007922955455541</v>
       </c>
       <c r="E3">
-        <v>0.9858349815062687</v>
+        <v>0.9931605287481791</v>
       </c>
       <c r="F3">
-        <v>0.9554698777360494</v>
+        <v>0.9661365116633202</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035964751333311</v>
+        <v>1.038705154067102</v>
       </c>
       <c r="J3">
-        <v>0.9984182776865492</v>
+        <v>1.008278528382402</v>
       </c>
       <c r="K3">
-        <v>1.010544812206396</v>
+        <v>1.018455454452025</v>
       </c>
       <c r="L3">
-        <v>0.9966523732693353</v>
+        <v>1.003881676418688</v>
       </c>
       <c r="M3">
-        <v>0.9667061244907996</v>
+        <v>0.9772218372597702</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.983148149830213</v>
+        <v>0.9937224748865099</v>
       </c>
       <c r="D4">
-        <v>1.004220208666699</v>
+        <v>1.012828160520999</v>
       </c>
       <c r="E4">
-        <v>0.9907615800730053</v>
+        <v>0.9986049668026343</v>
       </c>
       <c r="F4">
-        <v>0.9632465062196011</v>
+        <v>0.9743165908241584</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03781567387819</v>
+        <v>1.041073365346436</v>
       </c>
       <c r="J4">
-        <v>1.002992976755709</v>
+        <v>1.013288135041663</v>
       </c>
       <c r="K4">
-        <v>1.014267964947789</v>
+        <v>1.022774187656591</v>
       </c>
       <c r="L4">
-        <v>1.000972798523194</v>
+        <v>1.008720257857123</v>
       </c>
       <c r="M4">
-        <v>0.9738097320821906</v>
+        <v>0.9847352048739605</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9855559476988125</v>
+        <v>0.9962994233280942</v>
       </c>
       <c r="D5">
-        <v>1.005991358368809</v>
+        <v>1.014840467916419</v>
       </c>
       <c r="E5">
-        <v>0.9927875019005024</v>
+        <v>1.00083805042702</v>
       </c>
       <c r="F5">
-        <v>0.9664389235440684</v>
+        <v>0.9776692943824712</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038571620917089</v>
+        <v>1.042040230353087</v>
       </c>
       <c r="J5">
-        <v>1.004870836510442</v>
+        <v>1.015340324861396</v>
       </c>
       <c r="K5">
-        <v>1.015795207090169</v>
+        <v>1.024542827404511</v>
       </c>
       <c r="L5">
-        <v>1.002746954488023</v>
+        <v>1.01070202486209</v>
       </c>
       <c r="M5">
-        <v>0.9767247575064653</v>
+        <v>0.9878133372686876</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9859570975113416</v>
+        <v>0.9967284825718513</v>
       </c>
       <c r="D6">
-        <v>1.006286451248255</v>
+        <v>1.015175536578388</v>
       </c>
       <c r="E6">
-        <v>0.9931251105424771</v>
+        <v>1.001209856813699</v>
       </c>
       <c r="F6">
-        <v>0.9669706276786226</v>
+        <v>0.9782273999465497</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03869728882348</v>
+        <v>1.042200948550252</v>
       </c>
       <c r="J6">
-        <v>1.005183576678215</v>
+        <v>1.015681865189802</v>
       </c>
       <c r="K6">
-        <v>1.016049490191488</v>
+        <v>1.024837144241415</v>
       </c>
       <c r="L6">
-        <v>1.003042462308644</v>
+        <v>1.011031822789321</v>
       </c>
       <c r="M6">
-        <v>0.9772101938444634</v>
+        <v>0.9883256571538482</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9831805353046555</v>
+        <v>0.9937571541559537</v>
       </c>
       <c r="D7">
-        <v>1.004244030173308</v>
+        <v>1.012855239576288</v>
       </c>
       <c r="E7">
-        <v>0.9907888236696833</v>
+        <v>0.9986350184233173</v>
       </c>
       <c r="F7">
-        <v>0.9632894567400141</v>
+        <v>0.974361718098549</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037825860116569</v>
+        <v>1.041086394682433</v>
       </c>
       <c r="J7">
-        <v>1.003018242468464</v>
+        <v>1.013315762284454</v>
       </c>
       <c r="K7">
-        <v>1.014288517601558</v>
+        <v>1.022797999849994</v>
       </c>
       <c r="L7">
-        <v>1.000996666328385</v>
+        <v>1.008746938521114</v>
       </c>
       <c r="M7">
-        <v>0.9738489550999188</v>
+        <v>0.9847766417387113</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.971091604811579</v>
+        <v>0.9807752948547271</v>
       </c>
       <c r="D8">
-        <v>0.9953545969385521</v>
+        <v>1.002722236688245</v>
       </c>
       <c r="E8">
-        <v>0.9806299436463031</v>
+        <v>0.9873863205510602</v>
       </c>
       <c r="F8">
-        <v>0.9472312935384085</v>
+        <v>0.9574495438774556</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033991055843412</v>
+        <v>1.036177724622089</v>
       </c>
       <c r="J8">
-        <v>0.9935729549512864</v>
+        <v>1.00295625253991</v>
       </c>
       <c r="K8">
-        <v>1.006597863035557</v>
+        <v>1.013865459383638</v>
       </c>
       <c r="L8">
-        <v>0.9920788485872546</v>
+        <v>0.9987399071813109</v>
       </c>
       <c r="M8">
-        <v>0.9591768955066876</v>
+        <v>0.969238496093704</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9476170439270682</v>
+        <v>0.9553339814844491</v>
       </c>
       <c r="D9">
-        <v>0.9781212465805227</v>
+        <v>0.9828963505875024</v>
       </c>
       <c r="E9">
-        <v>0.9609667123979388</v>
+        <v>0.9653552127588766</v>
       </c>
       <c r="F9">
-        <v>0.9158574207115361</v>
+        <v>0.9241462047627906</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.026391211480819</v>
+        <v>1.026407649786513</v>
       </c>
       <c r="J9">
-        <v>0.9751655657426942</v>
+        <v>0.9825689733347719</v>
       </c>
       <c r="K9">
-        <v>0.9915795538190328</v>
+        <v>0.9962731548805067</v>
       </c>
       <c r="L9">
-        <v>0.9747265011606189</v>
+        <v>0.9790365524818561</v>
       </c>
       <c r="M9">
-        <v>0.9304810601789341</v>
+        <v>0.9386027968516056</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9300802546595636</v>
+        <v>0.9360888893628276</v>
       </c>
       <c r="D10">
-        <v>0.9652856028059907</v>
+        <v>0.967939246050062</v>
       </c>
       <c r="E10">
-        <v>0.9463350874203736</v>
+        <v>0.9487119553722791</v>
       </c>
       <c r="F10">
-        <v>0.8921937026246427</v>
+        <v>0.8987497319924019</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.020615789167835</v>
+        <v>1.018918434053094</v>
       </c>
       <c r="J10">
-        <v>0.9613715468536382</v>
+        <v>0.9670895855762368</v>
       </c>
       <c r="K10">
-        <v>0.9803112589889172</v>
+        <v>0.9829125433856236</v>
       </c>
       <c r="L10">
-        <v>0.9617459402346368</v>
+        <v>0.9640733800922978</v>
       </c>
       <c r="M10">
-        <v>0.9088265427235156</v>
+        <v>0.9152240782594501</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9219113118191237</v>
+        <v>0.9270403079810164</v>
       </c>
       <c r="D11">
-        <v>0.9593211145820171</v>
+        <v>0.9609215320031844</v>
       </c>
       <c r="E11">
-        <v>0.9395372182334111</v>
+        <v>0.9408958233093273</v>
       </c>
       <c r="F11">
-        <v>0.8810872759079232</v>
+        <v>0.8867294553655075</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.017904288304681</v>
+        <v>1.0153751491961</v>
       </c>
       <c r="J11">
-        <v>0.9549365705509743</v>
+        <v>0.9597981511337781</v>
       </c>
       <c r="K11">
-        <v>0.9750532304470415</v>
+        <v>0.9766200579593213</v>
       </c>
       <c r="L11">
-        <v>0.9556971491766156</v>
+        <v>0.9570256095321725</v>
       </c>
       <c r="M11">
-        <v>0.8986638158523931</v>
+        <v>0.9041582100247506</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9187762565241885</v>
+        <v>0.9235517018320497</v>
       </c>
       <c r="D12">
-        <v>0.9570348325356639</v>
+        <v>0.9582186833829431</v>
       </c>
       <c r="E12">
-        <v>0.9369314443432932</v>
+        <v>0.9378841744355059</v>
       </c>
       <c r="F12">
-        <v>0.8768088960918192</v>
+        <v>0.882079512434814</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.016860707013383</v>
+        <v>1.014005911032226</v>
       </c>
       <c r="J12">
-        <v>0.9524656035899929</v>
+        <v>0.9569850040145562</v>
       </c>
       <c r="K12">
-        <v>0.9730342179525654</v>
+        <v>0.9741926471675004</v>
       </c>
       <c r="L12">
-        <v>0.9533756210220926</v>
+        <v>0.9543066973311188</v>
       </c>
       <c r="M12">
-        <v>0.8947494483921054</v>
+        <v>0.8998777884791522</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9194535655381827</v>
+        <v>0.9243061794802974</v>
       </c>
       <c r="D13">
-        <v>0.9575286352617841</v>
+        <v>0.9588030909955626</v>
       </c>
       <c r="E13">
-        <v>0.9374942584944769</v>
+        <v>0.938535412220234</v>
       </c>
       <c r="F13">
-        <v>0.8777339989616905</v>
+        <v>0.8830859261512943</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.017086295992552</v>
+        <v>1.014302173988202</v>
       </c>
       <c r="J13">
-        <v>0.9529995013033249</v>
+        <v>0.9575934903340927</v>
       </c>
       <c r="K13">
-        <v>0.9734704578406185</v>
+        <v>0.9747176801658251</v>
       </c>
       <c r="L13">
-        <v>0.9538771754506743</v>
+        <v>0.9548947874711018</v>
       </c>
       <c r="M13">
-        <v>0.8955958127994467</v>
+        <v>0.9008042023515793</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9216543182163096</v>
+        <v>0.9267546781697583</v>
       </c>
       <c r="D14">
-        <v>0.9591336393028947</v>
+        <v>0.9607001766477429</v>
       </c>
       <c r="E14">
-        <v>0.9393235469007992</v>
+        <v>0.9406492054060153</v>
       </c>
       <c r="F14">
-        <v>0.8807369050671443</v>
+        <v>0.8863490811169198</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.017818800114134</v>
+        <v>1.015263105295549</v>
       </c>
       <c r="J14">
-        <v>0.9547340423758506</v>
+        <v>0.9595678646897755</v>
       </c>
       <c r="K14">
-        <v>0.9748877441055427</v>
+        <v>0.9764213403801039</v>
       </c>
       <c r="L14">
-        <v>0.9555068453919978</v>
+        <v>0.9568030316579671</v>
       </c>
       <c r="M14">
-        <v>0.8983432428970636</v>
+        <v>0.9038080541586274</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9229964349032775</v>
+        <v>0.9282456758206702</v>
       </c>
       <c r="D15">
-        <v>0.9601128201596556</v>
+        <v>0.9618557747961209</v>
       </c>
       <c r="E15">
-        <v>0.9404395462064917</v>
+        <v>0.9419366347404895</v>
       </c>
       <c r="F15">
-        <v>0.8825660038767593</v>
+        <v>0.8883339933123757</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.018265132851074</v>
+        <v>1.015847852224665</v>
       </c>
       <c r="J15">
-        <v>0.9557916652469283</v>
+        <v>0.9607698876753309</v>
       </c>
       <c r="K15">
-        <v>0.975751932857663</v>
+        <v>0.9774585981856415</v>
       </c>
       <c r="L15">
-        <v>0.9565006785145137</v>
+        <v>0.9579648284320808</v>
       </c>
       <c r="M15">
-        <v>0.9000168049042697</v>
+        <v>0.9056352928399932</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9306091363533697</v>
+        <v>0.9366727540762911</v>
       </c>
       <c r="D16">
-        <v>0.965672103842812</v>
+        <v>0.968392411600401</v>
       </c>
       <c r="E16">
-        <v>0.946775598522087</v>
+        <v>0.9492165142924689</v>
       </c>
       <c r="F16">
-        <v>0.8929107956487858</v>
+        <v>0.8995234502874694</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.02079092371431</v>
+        <v>1.019146630420676</v>
       </c>
       <c r="J16">
-        <v>0.9617879773895538</v>
+        <v>0.9675597985414708</v>
       </c>
       <c r="K16">
-        <v>0.9806515150340042</v>
+        <v>0.9833183689983108</v>
       </c>
       <c r="L16">
-        <v>0.9621375271284809</v>
+        <v>0.9645279011782002</v>
       </c>
       <c r="M16">
-        <v>0.9094827483720711</v>
+        <v>0.9159363818998703</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9352212942620003</v>
+        <v>0.9417548124552559</v>
       </c>
       <c r="D17">
-        <v>0.969044293212493</v>
+        <v>0.9723385250145957</v>
       </c>
       <c r="E17">
-        <v>0.9506191303867437</v>
+        <v>0.9536093289858139</v>
       </c>
       <c r="F17">
-        <v>0.8991546978115305</v>
+        <v>0.9062489393547936</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.022315866958596</v>
+        <v>1.021130472800559</v>
       </c>
       <c r="J17">
-        <v>0.9654184500927341</v>
+        <v>0.9716511365362438</v>
       </c>
       <c r="K17">
-        <v>0.9836177676828631</v>
+        <v>0.986849589390295</v>
       </c>
       <c r="L17">
-        <v>0.9655521677123658</v>
+        <v>0.9684827719195188</v>
       </c>
       <c r="M17">
-        <v>0.915196599338681</v>
+        <v>0.9221279960183077</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9378570972475105</v>
+        <v>0.9446516785002925</v>
       </c>
       <c r="D18">
-        <v>0.9709727713986676</v>
+        <v>0.9745891956502393</v>
       </c>
       <c r="E18">
-        <v>0.952817283290305</v>
+        <v>0.9561141200741493</v>
       </c>
       <c r="F18">
-        <v>0.9027155843865289</v>
+        <v>0.9100755788442023</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.023185384766554</v>
+        <v>1.0222592668057</v>
       </c>
       <c r="J18">
-        <v>0.9674923513795499</v>
+        <v>0.9739820441427939</v>
       </c>
       <c r="K18">
-        <v>0.9853120976444157</v>
+        <v>0.9888614585285875</v>
       </c>
       <c r="L18">
-        <v>0.9675033829626263</v>
+        <v>0.9707359666924783</v>
       </c>
       <c r="M18">
-        <v>0.9184552340295331</v>
+        <v>0.9256507877812296</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9387469912721313</v>
+        <v>0.945628523155043</v>
       </c>
       <c r="D19">
-        <v>0.971624066651563</v>
+        <v>0.9753483471049224</v>
       </c>
       <c r="E19">
-        <v>0.953559681371883</v>
+        <v>0.9569588802481085</v>
       </c>
       <c r="F19">
-        <v>0.9039166260476945</v>
+        <v>0.9113648496781328</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.023478609111669</v>
+        <v>1.022639555613791</v>
       </c>
       <c r="J19">
-        <v>0.9681923867078903</v>
+        <v>0.9747678341260425</v>
       </c>
       <c r="K19">
-        <v>0.9858839817466442</v>
+        <v>0.9895397022062723</v>
       </c>
       <c r="L19">
-        <v>0.9681621057482952</v>
+        <v>0.9714955606312059</v>
       </c>
       <c r="M19">
-        <v>0.9195543266364057</v>
+        <v>0.9268376619470011</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9347321714242743</v>
+        <v>0.941216655945911</v>
       </c>
       <c r="D20">
-        <v>0.9686865303393603</v>
+        <v>0.9719205170023268</v>
       </c>
       <c r="E20">
-        <v>0.950211350184711</v>
+        <v>0.953144072051303</v>
       </c>
       <c r="F20">
-        <v>0.8984933241115332</v>
+        <v>0.9055375080908146</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.02215434976716</v>
+        <v>1.0209206080252</v>
       </c>
       <c r="J20">
-        <v>0.9650335268608283</v>
+        <v>0.971218018947464</v>
       </c>
       <c r="K20">
-        <v>0.9833032817119802</v>
+        <v>0.9864757584990196</v>
       </c>
       <c r="L20">
-        <v>0.9651900639902343</v>
+        <v>0.9680640964953561</v>
       </c>
       <c r="M20">
-        <v>0.9145913643262582</v>
+        <v>0.9214730453128108</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9210091657766699</v>
+        <v>0.9260373684957821</v>
       </c>
       <c r="D21">
-        <v>0.9586630507115788</v>
+        <v>0.9601443275809847</v>
       </c>
       <c r="E21">
-        <v>0.9387872011059756</v>
+        <v>0.9400298977346612</v>
       </c>
       <c r="F21">
-        <v>0.879857070428074</v>
+        <v>0.8853935726528417</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.017604145235952</v>
+        <v>1.014981676615826</v>
       </c>
       <c r="J21">
-        <v>0.9542255972838027</v>
+        <v>0.9589895084012324</v>
       </c>
       <c r="K21">
-        <v>0.9744722932968822</v>
+        <v>0.975922274125718</v>
       </c>
       <c r="L21">
-        <v>0.9550291084372625</v>
+        <v>0.9562440393753774</v>
       </c>
       <c r="M21">
-        <v>0.8975382445147221</v>
+        <v>0.9029284616149313</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.911788020313217</v>
+        <v>0.9157407363528057</v>
       </c>
       <c r="D22">
-        <v>0.9519444099987857</v>
+        <v>0.9521729243728381</v>
       </c>
       <c r="E22">
-        <v>0.931129303118995</v>
+        <v>0.9311450332329252</v>
       </c>
       <c r="F22">
-        <v>0.8672376055563581</v>
+        <v>0.8716339381874015</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.014529262383075</v>
+        <v>1.010934528383913</v>
       </c>
       <c r="J22">
-        <v>0.9469551745756126</v>
+        <v>0.9506826816713994</v>
       </c>
       <c r="K22">
-        <v>0.9685319984624498</v>
+        <v>0.9687553571457124</v>
       </c>
       <c r="L22">
-        <v>0.9482007731774493</v>
+        <v>0.9482161266508925</v>
       </c>
       <c r="M22">
-        <v>0.8859939324948414</v>
+        <v>0.8902634836891673</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9167383418850659</v>
+        <v>0.9212789225934296</v>
       </c>
       <c r="D23">
-        <v>0.9555495125652302</v>
+        <v>0.9564586778769012</v>
       </c>
       <c r="E23">
-        <v>0.9352385174602367</v>
+        <v>0.9359226961860028</v>
       </c>
       <c r="F23">
-        <v>0.87402273909071</v>
+        <v>0.8790451559486516</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.016181529360733</v>
+        <v>1.013113003336155</v>
       </c>
       <c r="J23">
-        <v>0.9508589937477173</v>
+        <v>0.9551517153617308</v>
       </c>
       <c r="K23">
-        <v>0.9717215029974575</v>
+        <v>0.9726108574749524</v>
       </c>
       <c r="L23">
-        <v>0.95186652008949</v>
+        <v>0.9525349072888637</v>
       </c>
       <c r="M23">
-        <v>0.8922005369395698</v>
+        <v>0.8970847191399963</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9349533520214848</v>
+        <v>0.9414600325789677</v>
       </c>
       <c r="D24">
-        <v>0.9688483061346208</v>
+        <v>0.9721095534549025</v>
       </c>
       <c r="E24">
-        <v>0.9503957427720708</v>
+        <v>0.9533544779946553</v>
       </c>
       <c r="F24">
-        <v>0.8987924192399668</v>
+        <v>0.905859268359716</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.022227393756121</v>
+        <v>1.021015523909302</v>
       </c>
       <c r="J24">
-        <v>0.9652075912975278</v>
+        <v>0.9714138964743089</v>
       </c>
       <c r="K24">
-        <v>0.9834454944671768</v>
+        <v>0.9866448233969752</v>
       </c>
       <c r="L24">
-        <v>0.9653538074326015</v>
+        <v>0.9682534424511307</v>
       </c>
       <c r="M24">
-        <v>0.9148650715936263</v>
+        <v>0.921769261316146</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9539821272476373</v>
+        <v>0.9622655353438796</v>
       </c>
       <c r="D25">
-        <v>0.9827890835239635</v>
+        <v>0.9882927028044906</v>
       </c>
       <c r="E25">
-        <v>0.9662898161179974</v>
+        <v>0.9713549865939308</v>
       </c>
       <c r="F25">
-        <v>0.9243943414281152</v>
+        <v>0.9332458604888656</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.028468797455803</v>
+        <v>1.029086260279646</v>
       </c>
       <c r="J25">
-        <v>0.9801640195962406</v>
+        <v>0.988133143271685</v>
       </c>
       <c r="K25">
-        <v>0.9956605848071095</v>
+        <v>1.001075519503732</v>
       </c>
       <c r="L25">
-        <v>0.9794349973833546</v>
+        <v>0.9844148753307567</v>
       </c>
       <c r="M25">
-        <v>0.9382918788984947</v>
+        <v>0.9469771028076178</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_33/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_33/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9772758579528116</v>
+        <v>0.9812750133823835</v>
       </c>
       <c r="D2">
-        <v>0.9999923252583388</v>
+        <v>1.003499964226778</v>
       </c>
       <c r="E2">
-        <v>0.9843546027718559</v>
+        <v>0.9903030030288306</v>
       </c>
       <c r="F2">
-        <v>0.9528828289321093</v>
+        <v>0.9571077180409753</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034844666560698</v>
+        <v>1.038293036964869</v>
       </c>
       <c r="J2">
-        <v>1.000158158437748</v>
+        <v>1.004030583141123</v>
       </c>
       <c r="K2">
-        <v>1.011451767003176</v>
+        <v>1.014910753397613</v>
       </c>
       <c r="L2">
-        <v>0.9960362935438076</v>
+        <v>1.001899106209321</v>
       </c>
       <c r="M2">
-        <v>0.9650400953575837</v>
+        <v>0.9691988186735871</v>
+      </c>
+      <c r="N2">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9874394944712543</v>
+        <v>0.9866823439261857</v>
       </c>
       <c r="D3">
-        <v>1.007922955455541</v>
+        <v>1.007552116354409</v>
       </c>
       <c r="E3">
-        <v>0.9931605287481791</v>
+        <v>0.994654144169909</v>
       </c>
       <c r="F3">
-        <v>0.9661365116633202</v>
+        <v>0.9653413883578653</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038705154067102</v>
+        <v>1.039845521827299</v>
       </c>
       <c r="J3">
-        <v>1.008278528382402</v>
+        <v>1.007542765242068</v>
       </c>
       <c r="K3">
-        <v>1.018455454452025</v>
+        <v>1.01808926986525</v>
       </c>
       <c r="L3">
-        <v>1.003881676418688</v>
+        <v>1.005355886309721</v>
       </c>
       <c r="M3">
-        <v>0.9772218372597702</v>
+        <v>0.976437818827574</v>
+      </c>
+      <c r="N3">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9937224748865099</v>
+        <v>0.9900885206399581</v>
       </c>
       <c r="D4">
-        <v>1.012828160520999</v>
+        <v>1.010103469913795</v>
       </c>
       <c r="E4">
-        <v>0.9986049668026343</v>
+        <v>0.9974014011976886</v>
       </c>
       <c r="F4">
-        <v>0.9743165908241584</v>
+        <v>0.9705138606334962</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041073365346436</v>
+        <v>1.040805932586319</v>
       </c>
       <c r="J4">
-        <v>1.013288135041663</v>
+        <v>1.009749206713585</v>
       </c>
       <c r="K4">
-        <v>1.022774187656591</v>
+        <v>1.020081465361995</v>
       </c>
       <c r="L4">
-        <v>1.008720257857123</v>
+        <v>1.007531290529478</v>
       </c>
       <c r="M4">
-        <v>0.9847352048739605</v>
+        <v>0.9809816851167902</v>
+      </c>
+      <c r="N4">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9962994233280942</v>
+        <v>0.99149930978872</v>
       </c>
       <c r="D5">
-        <v>1.014840467916419</v>
+        <v>1.011159838366435</v>
       </c>
       <c r="E5">
-        <v>1.00083805042702</v>
+        <v>0.998540753600817</v>
       </c>
       <c r="F5">
-        <v>0.9776692943824712</v>
+        <v>0.9726533566091475</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042040230353087</v>
+        <v>1.041199448457012</v>
       </c>
       <c r="J5">
-        <v>1.015340324861396</v>
+        <v>1.010661635264923</v>
       </c>
       <c r="K5">
-        <v>1.024542827404511</v>
+        <v>1.020904144203958</v>
       </c>
       <c r="L5">
-        <v>1.01070202486209</v>
+        <v>1.00843177916983</v>
       </c>
       <c r="M5">
-        <v>0.9878133372686876</v>
+        <v>0.9828602242947314</v>
+      </c>
+      <c r="N5">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9967284825718513</v>
+        <v>0.9917349748140499</v>
       </c>
       <c r="D6">
-        <v>1.015175536578388</v>
+        <v>1.011336275377618</v>
       </c>
       <c r="E6">
-        <v>1.001209856813699</v>
+        <v>0.9987311618837895</v>
       </c>
       <c r="F6">
-        <v>0.9782273999465497</v>
+        <v>0.9730105936875381</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042200948550252</v>
+        <v>1.04126493007877</v>
       </c>
       <c r="J6">
-        <v>1.015681865189802</v>
+        <v>1.010813965983811</v>
       </c>
       <c r="K6">
-        <v>1.024837144241415</v>
+        <v>1.021041422131588</v>
       </c>
       <c r="L6">
-        <v>1.011031822789321</v>
+        <v>1.008582168907412</v>
       </c>
       <c r="M6">
-        <v>0.9883256571538482</v>
+        <v>0.9831738318280288</v>
+      </c>
+      <c r="N6">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9937571541559537</v>
+        <v>0.9901074535384714</v>
       </c>
       <c r="D7">
-        <v>1.012855239576288</v>
+        <v>1.010117648013245</v>
       </c>
       <c r="E7">
-        <v>0.9986350184233173</v>
+        <v>0.9974166856185462</v>
       </c>
       <c r="F7">
-        <v>0.974361718098549</v>
+        <v>0.9705425835357691</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041086394682433</v>
+        <v>1.04081123058659</v>
       </c>
       <c r="J7">
-        <v>1.013315762284454</v>
+        <v>1.009761457328803</v>
       </c>
       <c r="K7">
-        <v>1.022797999849994</v>
+        <v>1.020092515580501</v>
       </c>
       <c r="L7">
-        <v>1.008746938521114</v>
+        <v>1.007543377303754</v>
       </c>
       <c r="M7">
-        <v>0.9847766417387113</v>
+        <v>0.9810069084559194</v>
+      </c>
+      <c r="N7">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9807752948547271</v>
+        <v>0.9831222917739149</v>
       </c>
       <c r="D8">
-        <v>1.002722236688245</v>
+        <v>1.004884473901368</v>
       </c>
       <c r="E8">
-        <v>0.9873863205510602</v>
+        <v>0.9917880793002526</v>
       </c>
       <c r="F8">
-        <v>0.9574495438774556</v>
+        <v>0.9599238336676326</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036177724622089</v>
+        <v>1.038827054407731</v>
       </c>
       <c r="J8">
-        <v>1.00295625253991</v>
+        <v>1.005231671555702</v>
       </c>
       <c r="K8">
-        <v>1.013865459383638</v>
+        <v>1.015998685902945</v>
       </c>
       <c r="L8">
-        <v>0.9987399071813109</v>
+        <v>1.003080447393019</v>
       </c>
       <c r="M8">
-        <v>0.969238496093704</v>
+        <v>0.9716754925492221</v>
+      </c>
+      <c r="N8">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9553339814844491</v>
+        <v>0.9700526431545083</v>
       </c>
       <c r="D9">
-        <v>0.9828963505875024</v>
+        <v>0.9950876115498702</v>
       </c>
       <c r="E9">
-        <v>0.9653552127588766</v>
+        <v>0.9813110009986513</v>
       </c>
       <c r="F9">
-        <v>0.9241462047627906</v>
+        <v>0.9399152242539561</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.026407649786513</v>
+        <v>1.034976320037877</v>
       </c>
       <c r="J9">
-        <v>0.9825689733347719</v>
+        <v>0.9967091220069918</v>
       </c>
       <c r="K9">
-        <v>0.9962731548805067</v>
+        <v>1.008260894820274</v>
       </c>
       <c r="L9">
-        <v>0.9790365524818561</v>
+        <v>0.9947147509398295</v>
       </c>
       <c r="M9">
-        <v>0.9386027968516056</v>
+        <v>0.9540646552738204</v>
+      </c>
+      <c r="N9">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9360888893628276</v>
+        <v>0.9607492879348902</v>
       </c>
       <c r="D10">
-        <v>0.967939246050062</v>
+        <v>0.9881165861540586</v>
       </c>
       <c r="E10">
-        <v>0.9487119553722791</v>
+        <v>0.9738944208647647</v>
       </c>
       <c r="F10">
-        <v>0.8987497319924019</v>
+        <v>0.9255333110893361</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.018918434053094</v>
+        <v>1.032145686071138</v>
       </c>
       <c r="J10">
-        <v>0.9670895855762368</v>
+        <v>0.9906116479904729</v>
       </c>
       <c r="K10">
-        <v>0.9829125433856236</v>
+        <v>1.002703766071907</v>
       </c>
       <c r="L10">
-        <v>0.9640733800922978</v>
+        <v>0.9887515780388876</v>
       </c>
       <c r="M10">
-        <v>0.9152240782594501</v>
+        <v>0.9413911673728554</v>
+      </c>
+      <c r="N10">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9270403079810164</v>
+        <v>0.9565606108573268</v>
       </c>
       <c r="D11">
-        <v>0.9609215320031844</v>
+        <v>0.9849801504587424</v>
       </c>
       <c r="E11">
-        <v>0.9408958233093273</v>
+        <v>0.9705661000663368</v>
       </c>
       <c r="F11">
-        <v>0.8867294553655075</v>
+        <v>0.9190132578345647</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.0153751491961</v>
+        <v>1.030850997671127</v>
       </c>
       <c r="J11">
-        <v>0.9597981511337781</v>
+        <v>0.9878592374380534</v>
       </c>
       <c r="K11">
-        <v>0.9766200579593213</v>
+        <v>1.000190988848938</v>
       </c>
       <c r="L11">
-        <v>0.9570256095321725</v>
+        <v>0.9860652950976392</v>
       </c>
       <c r="M11">
-        <v>0.9041582100247506</v>
+        <v>0.9356431132230476</v>
+      </c>
+      <c r="N11">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9235517018320497</v>
+        <v>0.9549787091526798</v>
       </c>
       <c r="D12">
-        <v>0.9582186833829431</v>
+        <v>0.9837961018639475</v>
       </c>
       <c r="E12">
-        <v>0.9378841744355059</v>
+        <v>0.9693108519200755</v>
       </c>
       <c r="F12">
-        <v>0.882079512434814</v>
+        <v>0.9165429652716565</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.014005911032226</v>
+        <v>1.030359093592864</v>
       </c>
       <c r="J12">
-        <v>0.9569850040145562</v>
+        <v>0.986818700797193</v>
       </c>
       <c r="K12">
-        <v>0.9741926471675004</v>
+        <v>0.9992404696502312</v>
       </c>
       <c r="L12">
-        <v>0.9543066973311188</v>
+        <v>0.9850506108995906</v>
       </c>
       <c r="M12">
-        <v>0.8998777884791522</v>
+        <v>0.9334650402031502</v>
+      </c>
+      <c r="N12">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9243061794802974</v>
+        <v>0.9553192448852621</v>
       </c>
       <c r="D13">
-        <v>0.9588030909955626</v>
+        <v>0.9840509686170391</v>
       </c>
       <c r="E13">
-        <v>0.938535412220234</v>
+        <v>0.9695809892443522</v>
       </c>
       <c r="F13">
-        <v>0.8830859261512943</v>
+        <v>0.9170751231891786</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.014302173988202</v>
+        <v>1.030465117390495</v>
       </c>
       <c r="J13">
-        <v>0.9575934903340927</v>
+        <v>0.987042744521588</v>
       </c>
       <c r="K13">
-        <v>0.9747176801658251</v>
+        <v>0.9994451560152975</v>
       </c>
       <c r="L13">
-        <v>0.9548947874711018</v>
+        <v>0.9852690492148496</v>
       </c>
       <c r="M13">
-        <v>0.9008042023515793</v>
+        <v>0.9339342577435065</v>
+      </c>
+      <c r="N13">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9267546781697583</v>
+        <v>0.9564303937629145</v>
       </c>
       <c r="D14">
-        <v>0.9607001766477429</v>
+        <v>0.9848826731475626</v>
       </c>
       <c r="E14">
-        <v>0.9406492054060153</v>
+        <v>0.9704627363547738</v>
       </c>
       <c r="F14">
-        <v>0.8863490811169198</v>
+        <v>0.9188100793868604</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.015263105295549</v>
+        <v>1.030810565026695</v>
       </c>
       <c r="J14">
-        <v>0.9595678646897755</v>
+        <v>0.987773605179888</v>
       </c>
       <c r="K14">
-        <v>0.9764213403801039</v>
+        <v>1.000112775938353</v>
       </c>
       <c r="L14">
-        <v>0.9568030316579671</v>
+        <v>0.9859817729257083</v>
       </c>
       <c r="M14">
-        <v>0.9038080541586274</v>
+        <v>0.9354639743283485</v>
+      </c>
+      <c r="N14">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9282456758206702</v>
+        <v>0.9571114959967014</v>
       </c>
       <c r="D15">
-        <v>0.9618557747961209</v>
+        <v>0.9853925491636812</v>
       </c>
       <c r="E15">
-        <v>0.9419366347404895</v>
+        <v>0.9710034525918859</v>
       </c>
       <c r="F15">
-        <v>0.8883339933123757</v>
+        <v>0.9198724772865593</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.015847852224665</v>
+        <v>1.031021929050408</v>
       </c>
       <c r="J15">
-        <v>0.9607698876753309</v>
+        <v>0.9882214628949549</v>
       </c>
       <c r="K15">
-        <v>0.9774585981856415</v>
+        <v>1.000521807421899</v>
       </c>
       <c r="L15">
-        <v>0.9579648284320808</v>
+        <v>0.986418629723582</v>
       </c>
       <c r="M15">
-        <v>0.9056352928399932</v>
+        <v>0.9364006616282724</v>
+      </c>
+      <c r="N15">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9366727540762911</v>
+        <v>0.9610237376909307</v>
       </c>
       <c r="D16">
-        <v>0.968392411600401</v>
+        <v>0.9883221472017444</v>
       </c>
       <c r="E16">
-        <v>0.9492165142924689</v>
+        <v>0.9741127319389389</v>
       </c>
       <c r="F16">
-        <v>0.8995234502874694</v>
+        <v>0.9259594912171086</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.019146630420676</v>
+        <v>1.032230104143717</v>
       </c>
       <c r="J16">
-        <v>0.9675597985414708</v>
+        <v>0.990791844344512</v>
       </c>
       <c r="K16">
-        <v>0.9833183689983108</v>
+        <v>1.002868190901546</v>
       </c>
       <c r="L16">
-        <v>0.9645279011782002</v>
+        <v>0.9889275612729228</v>
       </c>
       <c r="M16">
-        <v>0.9159363818998703</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9417668426446397</v>
+      </c>
+      <c r="N16">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9417548124552559</v>
+        <v>0.9634335608040419</v>
       </c>
       <c r="D17">
-        <v>0.9723385250145957</v>
+        <v>0.9901273478236295</v>
       </c>
       <c r="E17">
-        <v>0.9536093289858139</v>
+        <v>0.9760308666987521</v>
       </c>
       <c r="F17">
-        <v>0.9062489393547936</v>
+        <v>0.9296963946282343</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.021130472800559</v>
+        <v>1.032969062301338</v>
       </c>
       <c r="J17">
-        <v>0.9716511365362438</v>
+        <v>0.9923732652985888</v>
       </c>
       <c r="K17">
-        <v>0.986849589390295</v>
+        <v>1.004310723445686</v>
       </c>
       <c r="L17">
-        <v>0.9684827719195188</v>
+        <v>0.9904726321766095</v>
       </c>
       <c r="M17">
-        <v>0.9221279960183077</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.945060628388778</v>
+      </c>
+      <c r="N17">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9446516785002925</v>
+        <v>0.9648238508601978</v>
       </c>
       <c r="D18">
-        <v>0.9745891956502393</v>
+        <v>0.9911690083943918</v>
       </c>
       <c r="E18">
-        <v>0.9561141200741493</v>
+        <v>0.9771385065004203</v>
       </c>
       <c r="F18">
-        <v>0.9100755788442023</v>
+        <v>0.9318481710026775</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.0222592668057</v>
+        <v>1.033393472486927</v>
       </c>
       <c r="J18">
-        <v>0.9739820441427939</v>
+        <v>0.9932849560574259</v>
       </c>
       <c r="K18">
-        <v>0.9888614585285875</v>
+        <v>1.005141937469517</v>
       </c>
       <c r="L18">
-        <v>0.9707359666924783</v>
+        <v>0.9913638831603254</v>
       </c>
       <c r="M18">
-        <v>0.9256507877812296</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9469570058655095</v>
+      </c>
+      <c r="N18">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.945628523155043</v>
+        <v>0.9652953614264467</v>
       </c>
       <c r="D19">
-        <v>0.9753483471049224</v>
+        <v>0.9915223116353498</v>
       </c>
       <c r="E19">
-        <v>0.9569588802481085</v>
+        <v>0.9775143273585205</v>
       </c>
       <c r="F19">
-        <v>0.9113648496781328</v>
+        <v>0.9325772661159781</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.022639555613791</v>
+        <v>1.033537081956697</v>
       </c>
       <c r="J19">
-        <v>0.9747678341260425</v>
+        <v>0.9935940373337788</v>
       </c>
       <c r="K19">
-        <v>0.9895397022062723</v>
+        <v>1.005423664500574</v>
       </c>
       <c r="L19">
-        <v>0.9714955606312059</v>
+        <v>0.9916661217667928</v>
       </c>
       <c r="M19">
-        <v>0.9268376619470011</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9475995188974682</v>
+      </c>
+      <c r="N19">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.941216655945911</v>
+        <v>0.9631766075651621</v>
       </c>
       <c r="D20">
-        <v>0.9719205170023268</v>
+        <v>0.9899348429174203</v>
       </c>
       <c r="E20">
-        <v>0.953144072051303</v>
+        <v>0.975826234552828</v>
       </c>
       <c r="F20">
-        <v>0.9055375080908146</v>
+        <v>0.9292983762107034</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.0209206080252</v>
+        <v>1.032890467286125</v>
       </c>
       <c r="J20">
-        <v>0.971218018947464</v>
+        <v>0.992204712188323</v>
       </c>
       <c r="K20">
-        <v>0.9864757584990196</v>
+        <v>1.004157015393687</v>
       </c>
       <c r="L20">
-        <v>0.9680640964953561</v>
+        <v>0.9903078995813595</v>
       </c>
       <c r="M20">
-        <v>0.9214730453128108</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9447098311703546</v>
+      </c>
+      <c r="N20">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9260373684957821</v>
+        <v>0.9561039238865363</v>
       </c>
       <c r="D21">
-        <v>0.9601443275809847</v>
+        <v>0.9846382937611117</v>
       </c>
       <c r="E21">
-        <v>0.9400298977346612</v>
+        <v>0.9702036193100373</v>
       </c>
       <c r="F21">
-        <v>0.8853935726528417</v>
+        <v>0.9183005548864893</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.014981676615826</v>
+        <v>1.030709148389555</v>
       </c>
       <c r="J21">
-        <v>0.9589895084012324</v>
+        <v>0.9875588978629519</v>
       </c>
       <c r="K21">
-        <v>0.975922274125718</v>
+        <v>0.9999166622813574</v>
       </c>
       <c r="L21">
-        <v>0.9562440393753774</v>
+        <v>0.9857723700858969</v>
       </c>
       <c r="M21">
-        <v>0.9029284616149313</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9350147314656511</v>
+      </c>
+      <c r="N21">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9157407363528057</v>
+        <v>0.951505235250056</v>
       </c>
       <c r="D22">
-        <v>0.9521729243728381</v>
+        <v>0.9811972317316464</v>
       </c>
       <c r="E22">
-        <v>0.9311450332329252</v>
+        <v>0.966557932726253</v>
       </c>
       <c r="F22">
-        <v>0.8716339381874015</v>
+        <v>0.9111027324887981</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.010934528383913</v>
+        <v>1.029273658694873</v>
       </c>
       <c r="J22">
-        <v>0.9506826816713994</v>
+        <v>0.9845319961228649</v>
       </c>
       <c r="K22">
-        <v>0.9687553571457124</v>
+        <v>0.9971506098328001</v>
       </c>
       <c r="L22">
-        <v>0.9482161266508925</v>
+        <v>0.9828223257630712</v>
       </c>
       <c r="M22">
-        <v>0.8902634836891673</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.928667979321924</v>
+      </c>
+      <c r="N22">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9212789225934296</v>
+        <v>0.9539581953243361</v>
       </c>
       <c r="D23">
-        <v>0.9564586778769012</v>
+        <v>0.9830323989117626</v>
       </c>
       <c r="E23">
-        <v>0.9359226961860028</v>
+        <v>0.9685015687538074</v>
       </c>
       <c r="F23">
-        <v>0.8790451559486516</v>
+        <v>0.9149469380856885</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.013113003336155</v>
+        <v>1.030040937454181</v>
       </c>
       <c r="J23">
-        <v>0.9551517153617308</v>
+        <v>0.9861471347821517</v>
       </c>
       <c r="K23">
-        <v>0.9726108574749524</v>
+        <v>0.9986268481873272</v>
       </c>
       <c r="L23">
-        <v>0.9525349072888637</v>
+        <v>0.9843959742744628</v>
       </c>
       <c r="M23">
-        <v>0.8970847191399963</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.932057750373755</v>
+      </c>
+      <c r="N23">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9414600325789677</v>
+        <v>0.9632927608686346</v>
       </c>
       <c r="D24">
-        <v>0.9721095534549025</v>
+        <v>0.9900218623671178</v>
       </c>
       <c r="E24">
-        <v>0.9533544779946553</v>
+        <v>0.9759187334445586</v>
       </c>
       <c r="F24">
-        <v>0.905859268359716</v>
+        <v>0.929478309476065</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.021015523909302</v>
+        <v>1.032926001375484</v>
       </c>
       <c r="J24">
-        <v>0.9714138964743089</v>
+        <v>0.9922809071307335</v>
       </c>
       <c r="K24">
-        <v>0.9866448233969752</v>
+        <v>1.004226500852999</v>
       </c>
       <c r="L24">
-        <v>0.9682534424511307</v>
+        <v>0.9903823658476881</v>
       </c>
       <c r="M24">
-        <v>0.921769261316146</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9448684177852089</v>
+      </c>
+      <c r="N24">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9622655353438796</v>
+        <v>0.9735292441948001</v>
       </c>
       <c r="D25">
-        <v>0.9882927028044906</v>
+        <v>0.9976936436730919</v>
       </c>
       <c r="E25">
-        <v>0.9713549865939308</v>
+        <v>0.984091231824167</v>
       </c>
       <c r="F25">
-        <v>0.9332458604888656</v>
+        <v>0.9452579767907737</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029086260279646</v>
+        <v>1.036016259385497</v>
       </c>
       <c r="J25">
-        <v>0.988133143271685</v>
+        <v>0.9989815166427335</v>
       </c>
       <c r="K25">
-        <v>1.001075519503732</v>
+        <v>1.010327868672723</v>
       </c>
       <c r="L25">
-        <v>0.9844148753307567</v>
+        <v>0.9969416354625407</v>
       </c>
       <c r="M25">
-        <v>0.9469771028076178</v>
+        <v>0.9587700162505015</v>
+      </c>
+      <c r="N25">
+        <v>1.005712725503983</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_33/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_33/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9812750133823835</v>
+        <v>1.017559111064485</v>
       </c>
       <c r="D2">
-        <v>1.003499964226778</v>
+        <v>1.023407764977146</v>
       </c>
       <c r="E2">
-        <v>0.9903030030288306</v>
+        <v>1.018939353641001</v>
       </c>
       <c r="F2">
-        <v>0.9571077180409753</v>
+        <v>1.015923187398002</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038293036964869</v>
+        <v>1.02707312312399</v>
       </c>
       <c r="J2">
-        <v>1.004030583141123</v>
+        <v>1.022772538728435</v>
       </c>
       <c r="K2">
-        <v>1.014910753397613</v>
+        <v>1.026239292359949</v>
       </c>
       <c r="L2">
-        <v>1.001899106209321</v>
+        <v>1.02178408081615</v>
       </c>
       <c r="M2">
-        <v>0.9691988186735871</v>
+        <v>1.018776895882761</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9866823439261857</v>
+        <v>1.018641279331411</v>
       </c>
       <c r="D3">
-        <v>1.007552116354409</v>
+        <v>1.02421460950286</v>
       </c>
       <c r="E3">
-        <v>0.994654144169909</v>
+        <v>1.01985983518596</v>
       </c>
       <c r="F3">
-        <v>0.9653413883578653</v>
+        <v>1.017649398123509</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039845521827299</v>
+        <v>1.027276406361592</v>
       </c>
       <c r="J3">
-        <v>1.007542765242068</v>
+        <v>1.023489949910739</v>
       </c>
       <c r="K3">
-        <v>1.01808926986525</v>
+        <v>1.026853009402694</v>
       </c>
       <c r="L3">
-        <v>1.005355886309721</v>
+        <v>1.022510164933683</v>
       </c>
       <c r="M3">
-        <v>0.976437818827574</v>
+        <v>1.02030582566243</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9900885206399581</v>
+        <v>1.01934073110362</v>
       </c>
       <c r="D4">
-        <v>1.010103469913795</v>
+        <v>1.024735482784014</v>
       </c>
       <c r="E4">
-        <v>0.9974014011976886</v>
+        <v>1.020455173958533</v>
       </c>
       <c r="F4">
-        <v>0.9705138606334962</v>
+        <v>1.018765352390039</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040805932586319</v>
+        <v>1.027405610608922</v>
       </c>
       <c r="J4">
-        <v>1.009749206713585</v>
+        <v>1.023952868757091</v>
       </c>
       <c r="K4">
-        <v>1.020081465361995</v>
+        <v>1.027248272090583</v>
       </c>
       <c r="L4">
-        <v>1.007531290529478</v>
+        <v>1.022979096177411</v>
       </c>
       <c r="M4">
-        <v>0.9809816851167902</v>
+        <v>1.021293697580629</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.99149930978872</v>
+        <v>1.019634595154042</v>
       </c>
       <c r="D5">
-        <v>1.011159838366435</v>
+        <v>1.024954169127289</v>
       </c>
       <c r="E5">
-        <v>0.998540753600817</v>
+        <v>1.020705389772821</v>
       </c>
       <c r="F5">
-        <v>0.9726533566091475</v>
+        <v>1.019234264465888</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041199448457012</v>
+        <v>1.027459369549374</v>
       </c>
       <c r="J5">
-        <v>1.010661635264923</v>
+        <v>1.024147171354864</v>
       </c>
       <c r="K5">
-        <v>1.020904144203958</v>
+        <v>1.02741399762755</v>
       </c>
       <c r="L5">
-        <v>1.00843177916983</v>
+        <v>1.023176022035219</v>
       </c>
       <c r="M5">
-        <v>0.9828602242947314</v>
+        <v>1.021708660131189</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9917349748140499</v>
+        <v>1.019683925405109</v>
       </c>
       <c r="D6">
-        <v>1.011336275377618</v>
+        <v>1.024990870611201</v>
       </c>
       <c r="E6">
-        <v>0.9987311618837895</v>
+        <v>1.020747398351298</v>
       </c>
       <c r="F6">
-        <v>0.9730105936875381</v>
+        <v>1.01931298334031</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04126493007877</v>
+        <v>1.027468363163718</v>
       </c>
       <c r="J6">
-        <v>1.010813965983811</v>
+        <v>1.024179777564817</v>
       </c>
       <c r="K6">
-        <v>1.021041422131588</v>
+        <v>1.027441797725</v>
       </c>
       <c r="L6">
-        <v>1.008582168907412</v>
+        <v>1.023209074304714</v>
       </c>
       <c r="M6">
-        <v>0.9831738318280288</v>
+        <v>1.021778314528212</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9901074535384714</v>
+        <v>1.019344658455674</v>
       </c>
       <c r="D7">
-        <v>1.010117648013245</v>
+        <v>1.024738406015585</v>
       </c>
       <c r="E7">
-        <v>0.9974166856185462</v>
+        <v>1.020458517607056</v>
       </c>
       <c r="F7">
-        <v>0.9705425835357691</v>
+        <v>1.018771618928847</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04081123058659</v>
+        <v>1.027406331133</v>
       </c>
       <c r="J7">
-        <v>1.009761457328803</v>
+        <v>1.023955466248429</v>
       </c>
       <c r="K7">
-        <v>1.020092515580501</v>
+        <v>1.027250488262688</v>
       </c>
       <c r="L7">
-        <v>1.007543377303754</v>
+        <v>1.022981728345308</v>
       </c>
       <c r="M7">
-        <v>0.9810069084559194</v>
+        <v>1.021299243652166</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9831222917739149</v>
+        <v>1.017924998380114</v>
       </c>
       <c r="D8">
-        <v>1.004884473901368</v>
+        <v>1.023680692622323</v>
       </c>
       <c r="E8">
-        <v>0.9917880793002526</v>
+        <v>1.019250492143294</v>
       </c>
       <c r="F8">
-        <v>0.9599238336676326</v>
+        <v>1.016506784903975</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038827054407731</v>
+        <v>1.027142306924615</v>
       </c>
       <c r="J8">
-        <v>1.005231671555702</v>
+        <v>1.023015259973391</v>
       </c>
       <c r="K8">
-        <v>1.015998685902945</v>
+        <v>1.026447085118599</v>
       </c>
       <c r="L8">
-        <v>1.003080447393019</v>
+        <v>1.022029650078783</v>
       </c>
       <c r="M8">
-        <v>0.9716754925492221</v>
+        <v>1.019293909375985</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9700526431545083</v>
+        <v>1.015417280839279</v>
       </c>
       <c r="D9">
-        <v>0.9950876115498702</v>
+        <v>1.02180757455596</v>
       </c>
       <c r="E9">
-        <v>0.9813110009986513</v>
+        <v>1.017119646514397</v>
       </c>
       <c r="F9">
-        <v>0.9399152242539561</v>
+        <v>1.012507646697246</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034976320037877</v>
+        <v>1.0266591824082</v>
       </c>
       <c r="J9">
-        <v>0.9967091220069918</v>
+        <v>1.02134852342094</v>
       </c>
       <c r="K9">
-        <v>1.008260894820274</v>
+        <v>1.025017155716229</v>
       </c>
       <c r="L9">
-        <v>0.9947147509398295</v>
+        <v>1.020345070067533</v>
       </c>
       <c r="M9">
-        <v>0.9540646552738204</v>
+        <v>1.015748813466623</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9607492879348902</v>
+        <v>1.013741235065084</v>
       </c>
       <c r="D10">
-        <v>0.9881165861540586</v>
+        <v>1.020552532862007</v>
       </c>
       <c r="E10">
-        <v>0.9738944208647647</v>
+        <v>1.01569756431084</v>
       </c>
       <c r="F10">
-        <v>0.9255333110893361</v>
+        <v>1.009835468157138</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032145686071138</v>
+        <v>1.026325064581994</v>
       </c>
       <c r="J10">
-        <v>0.9906116479904729</v>
+        <v>1.02023057157659</v>
       </c>
       <c r="K10">
-        <v>1.002703766071907</v>
+        <v>1.024054246803869</v>
       </c>
       <c r="L10">
-        <v>0.9887515780388876</v>
+        <v>1.019217304709761</v>
       </c>
       <c r="M10">
-        <v>0.9413911673728554</v>
+        <v>1.013377230324225</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9565606108573268</v>
+        <v>1.01301445309697</v>
       </c>
       <c r="D11">
-        <v>0.9849801504587424</v>
+        <v>1.02000758030485</v>
       </c>
       <c r="E11">
-        <v>0.9705661000663368</v>
+        <v>1.015081409581992</v>
       </c>
       <c r="F11">
-        <v>0.9190132578345647</v>
+        <v>1.00867681532703</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030850997671127</v>
+        <v>1.026177529600688</v>
       </c>
       <c r="J11">
-        <v>0.9878592374380534</v>
+        <v>1.019744853838168</v>
       </c>
       <c r="K11">
-        <v>1.000190988848938</v>
+        <v>1.023635000857672</v>
       </c>
       <c r="L11">
-        <v>0.9860652950976392</v>
+        <v>1.018727834530254</v>
       </c>
       <c r="M11">
-        <v>0.9356431132230476</v>
+        <v>1.012348256564307</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9549787091526798</v>
+        <v>1.012744334376385</v>
       </c>
       <c r="D12">
-        <v>0.9837961018639475</v>
+        <v>1.01980493241845</v>
       </c>
       <c r="E12">
-        <v>0.9693108519200755</v>
+        <v>1.014852483023902</v>
       </c>
       <c r="F12">
-        <v>0.9165429652716565</v>
+        <v>1.008246191455799</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030359093592864</v>
+        <v>1.026122298464311</v>
       </c>
       <c r="J12">
-        <v>0.986818700797193</v>
+        <v>1.019564188769725</v>
       </c>
       <c r="K12">
-        <v>0.9992404696502312</v>
+        <v>1.023478927405718</v>
       </c>
       <c r="L12">
-        <v>0.9850506108995906</v>
+        <v>1.018545850558692</v>
       </c>
       <c r="M12">
-        <v>0.9334650402031502</v>
+        <v>1.011965730410637</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9553192448852621</v>
+        <v>1.012802283023989</v>
       </c>
       <c r="D13">
-        <v>0.9840509686170391</v>
+        <v>1.01984841142601</v>
       </c>
       <c r="E13">
-        <v>0.9695809892443522</v>
+        <v>1.014901591255269</v>
       </c>
       <c r="F13">
-        <v>0.9170751231891786</v>
+        <v>1.00833857316546</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030465117390495</v>
+        <v>1.026134165199431</v>
       </c>
       <c r="J13">
-        <v>0.987042744521588</v>
+        <v>1.019602953287805</v>
       </c>
       <c r="K13">
-        <v>0.9994451560152975</v>
+        <v>1.023512421407183</v>
       </c>
       <c r="L13">
-        <v>0.9852690492148496</v>
+        <v>1.018584894591283</v>
       </c>
       <c r="M13">
-        <v>0.9339342577435065</v>
+        <v>1.01204779818138</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9564303937629145</v>
+        <v>1.012992128270233</v>
       </c>
       <c r="D14">
-        <v>0.9848826731475626</v>
+        <v>1.019990834030468</v>
       </c>
       <c r="E14">
-        <v>0.9704627363547738</v>
+        <v>1.015062487659491</v>
       </c>
       <c r="F14">
-        <v>0.9188100793868604</v>
+        <v>1.008641224959</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030810565026695</v>
+        <v>1.026172972953675</v>
       </c>
       <c r="J14">
-        <v>0.987773605179888</v>
+        <v>1.019729925074897</v>
       </c>
       <c r="K14">
-        <v>1.000112775938353</v>
+        <v>1.023622106860433</v>
       </c>
       <c r="L14">
-        <v>0.9859817729257083</v>
+        <v>1.018712795216108</v>
       </c>
       <c r="M14">
-        <v>0.9354639743283485</v>
+        <v>1.0123166434063</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9571114959967014</v>
+        <v>1.013109076966806</v>
       </c>
       <c r="D15">
-        <v>0.9853925491636812</v>
+        <v>1.020078555016869</v>
       </c>
       <c r="E15">
-        <v>0.9710034525918859</v>
+        <v>1.015161613343776</v>
       </c>
       <c r="F15">
-        <v>0.9198724772865593</v>
+        <v>1.00882766544373</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031021929050408</v>
+        <v>1.026196826689602</v>
       </c>
       <c r="J15">
-        <v>0.9882214628949549</v>
+        <v>1.019808123680505</v>
       </c>
       <c r="K15">
-        <v>1.000521807421899</v>
+        <v>1.023689641689544</v>
       </c>
       <c r="L15">
-        <v>0.986418629723582</v>
+        <v>1.018791576045142</v>
       </c>
       <c r="M15">
-        <v>0.9364006616282724</v>
+        <v>1.012482245199141</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9610237376909307</v>
+        <v>1.013789446973555</v>
       </c>
       <c r="D16">
-        <v>0.9883221472017444</v>
+        <v>1.020588667627138</v>
       </c>
       <c r="E16">
-        <v>0.9741127319389389</v>
+        <v>1.0157384482495</v>
       </c>
       <c r="F16">
-        <v>0.9259594912171086</v>
+        <v>1.009912329867372</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032230104143717</v>
+        <v>1.026334795704764</v>
       </c>
       <c r="J16">
-        <v>0.990791844344512</v>
+        <v>1.020262772407365</v>
       </c>
       <c r="K16">
-        <v>1.002868190901546</v>
+        <v>1.024082022208322</v>
       </c>
       <c r="L16">
-        <v>0.9889275612729228</v>
+        <v>1.019249765069332</v>
       </c>
       <c r="M16">
-        <v>0.9417668426446397</v>
+        <v>1.013445475649278</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9634335608040419</v>
+        <v>1.01421594385352</v>
       </c>
       <c r="D17">
-        <v>0.9901273478236295</v>
+        <v>1.020908242356359</v>
       </c>
       <c r="E17">
-        <v>0.9760308666987521</v>
+        <v>1.016100177681017</v>
       </c>
       <c r="F17">
-        <v>0.9296963946282343</v>
+        <v>1.010592279975688</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032969062301338</v>
+        <v>1.02642057408674</v>
       </c>
       <c r="J17">
-        <v>0.9923732652985888</v>
+        <v>1.020547521879609</v>
       </c>
       <c r="K17">
-        <v>1.004310723445686</v>
+        <v>1.024327535457025</v>
       </c>
       <c r="L17">
-        <v>0.9904726321766095</v>
+        <v>1.019536868494491</v>
       </c>
       <c r="M17">
-        <v>0.945060628388778</v>
+        <v>1.014049125688754</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9648238508601978</v>
+        <v>1.0144646118186</v>
       </c>
       <c r="D18">
-        <v>0.9911690083943918</v>
+        <v>1.021094499161987</v>
       </c>
       <c r="E18">
-        <v>0.9771385065004203</v>
+        <v>1.016311131422917</v>
       </c>
       <c r="F18">
-        <v>0.9318481710026775</v>
+        <v>1.010988731485821</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033393472486927</v>
+        <v>1.026470331271095</v>
       </c>
       <c r="J18">
-        <v>0.9932849560574259</v>
+        <v>1.020713453592687</v>
       </c>
       <c r="K18">
-        <v>1.005141937469517</v>
+        <v>1.024470517350835</v>
       </c>
       <c r="L18">
-        <v>0.9913638831603254</v>
+        <v>1.019704221151301</v>
       </c>
       <c r="M18">
-        <v>0.9469570058655095</v>
+        <v>1.014401026184804</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9652953614264467</v>
+        <v>1.014549384215175</v>
       </c>
       <c r="D19">
-        <v>0.9915223116353498</v>
+        <v>1.021157983236882</v>
       </c>
       <c r="E19">
-        <v>0.9775143273585205</v>
+        <v>1.016383054983534</v>
       </c>
       <c r="F19">
-        <v>0.9325772661159781</v>
+        <v>1.011123885773421</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033537081956697</v>
+        <v>1.026487250401085</v>
       </c>
       <c r="J19">
-        <v>0.9935940373337788</v>
+        <v>1.020770005303728</v>
       </c>
       <c r="K19">
-        <v>1.005423664500574</v>
+        <v>1.02451923289347</v>
       </c>
       <c r="L19">
-        <v>0.9916661217667928</v>
+        <v>1.019761265487823</v>
       </c>
       <c r="M19">
-        <v>0.9475995188974682</v>
+        <v>1.014520981803951</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9631766075651621</v>
+        <v>1.014170195186135</v>
       </c>
       <c r="D20">
-        <v>0.9899348429174203</v>
+        <v>1.02087397009508</v>
       </c>
       <c r="E20">
-        <v>0.975826234552828</v>
+        <v>1.016061371367202</v>
       </c>
       <c r="F20">
-        <v>0.9292983762107034</v>
+        <v>1.010519343555699</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032890467286125</v>
+        <v>1.026411399418717</v>
       </c>
       <c r="J20">
-        <v>0.992204712188323</v>
+        <v>1.020516987296423</v>
       </c>
       <c r="K20">
-        <v>1.004157015393687</v>
+        <v>1.02430121716396</v>
       </c>
       <c r="L20">
-        <v>0.9903078995813595</v>
+        <v>1.019506076395546</v>
       </c>
       <c r="M20">
-        <v>0.9447098311703546</v>
+        <v>1.01398438034112</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9561039238865363</v>
+        <v>1.012936228003843</v>
       </c>
       <c r="D21">
-        <v>0.9846382937611117</v>
+        <v>1.019948900433635</v>
       </c>
       <c r="E21">
-        <v>0.9702036193100373</v>
+        <v>1.015015109327488</v>
       </c>
       <c r="F21">
-        <v>0.9183005548864893</v>
+        <v>1.008552108500798</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030709148389555</v>
+        <v>1.026161556913021</v>
       </c>
       <c r="J21">
-        <v>0.9875588978629519</v>
+        <v>1.019692541906217</v>
       </c>
       <c r="K21">
-        <v>0.9999166622813574</v>
+        <v>1.023589816813257</v>
       </c>
       <c r="L21">
-        <v>0.9857723700858969</v>
+        <v>1.018675136457506</v>
       </c>
       <c r="M21">
-        <v>0.9350147314656511</v>
+        <v>1.012237484085151</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.951505235250056</v>
+        <v>1.01215945940398</v>
       </c>
       <c r="D22">
-        <v>0.9811972317316464</v>
+        <v>1.01936595126461</v>
       </c>
       <c r="E22">
-        <v>0.966557932726253</v>
+        <v>1.014356939198574</v>
       </c>
       <c r="F22">
-        <v>0.9111027324887981</v>
+        <v>1.007313785808724</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029273658694873</v>
+        <v>1.026001982505603</v>
       </c>
       <c r="J22">
-        <v>0.9845319961228649</v>
+        <v>1.019172745285161</v>
       </c>
       <c r="K22">
-        <v>0.9971506098328001</v>
+        <v>1.02314052380745</v>
       </c>
       <c r="L22">
-        <v>0.9828223257630712</v>
+        <v>1.018151690059562</v>
       </c>
       <c r="M22">
-        <v>0.928667979321924</v>
+        <v>1.011137287829489</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9539581953243361</v>
+        <v>1.01257132771519</v>
       </c>
       <c r="D23">
-        <v>0.9830323989117626</v>
+        <v>1.019675109287694</v>
       </c>
       <c r="E23">
-        <v>0.9685015687538074</v>
+        <v>1.014705880754276</v>
       </c>
       <c r="F23">
-        <v>0.9149469380856885</v>
+        <v>1.007970384649254</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030040937454181</v>
+        <v>1.026086811947839</v>
       </c>
       <c r="J23">
-        <v>0.9861471347821517</v>
+        <v>1.019448435980173</v>
       </c>
       <c r="K23">
-        <v>0.9986268481873272</v>
+        <v>1.023378893243347</v>
       </c>
       <c r="L23">
-        <v>0.9843959742744628</v>
+        <v>1.018429274378744</v>
       </c>
       <c r="M23">
-        <v>0.932057750373755</v>
+        <v>1.011720701573994</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9632927608686346</v>
+        <v>1.014190867349998</v>
       </c>
       <c r="D24">
-        <v>0.9900218623671178</v>
+        <v>1.020889456705052</v>
       </c>
       <c r="E24">
-        <v>0.9759187334445586</v>
+        <v>1.016078906384106</v>
       </c>
       <c r="F24">
-        <v>0.929478309476065</v>
+        <v>1.010552300852707</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032926001375484</v>
+        <v>1.026415545908778</v>
       </c>
       <c r="J24">
-        <v>0.9922809071307335</v>
+        <v>1.020530785047862</v>
       </c>
       <c r="K24">
-        <v>1.004226500852999</v>
+        <v>1.024313109953169</v>
       </c>
       <c r="L24">
-        <v>0.9903823658476881</v>
+        <v>1.019519990359228</v>
       </c>
       <c r="M24">
-        <v>0.9448684177852089</v>
+        <v>1.014013636588841</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9735292441948001</v>
+        <v>1.016066322145164</v>
       </c>
       <c r="D25">
-        <v>0.9976936436730919</v>
+        <v>1.022292926547201</v>
       </c>
       <c r="E25">
-        <v>0.984091231824167</v>
+        <v>1.017670783409176</v>
       </c>
       <c r="F25">
-        <v>0.9452579767907737</v>
+        <v>1.013542550847414</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036016259385497</v>
+        <v>1.026786201861421</v>
       </c>
       <c r="J25">
-        <v>0.9989815166427335</v>
+        <v>1.021780605678944</v>
       </c>
       <c r="K25">
-        <v>1.010327868672723</v>
+        <v>1.025388518674154</v>
       </c>
       <c r="L25">
-        <v>0.9969416354625407</v>
+        <v>1.020781399307345</v>
       </c>
       <c r="M25">
-        <v>0.9587700162505015</v>
+        <v>1.01666671213319</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_33/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_33/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.017559111064485</v>
+        <v>0.9812750133823841</v>
       </c>
       <c r="D2">
-        <v>1.023407764977146</v>
+        <v>1.003499964226778</v>
       </c>
       <c r="E2">
-        <v>1.018939353641001</v>
+        <v>0.9903030030288308</v>
       </c>
       <c r="F2">
-        <v>1.015923187398002</v>
+        <v>0.9571077180409761</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.02707312312399</v>
+        <v>1.038293036964869</v>
       </c>
       <c r="J2">
-        <v>1.022772538728435</v>
+        <v>1.004030583141123</v>
       </c>
       <c r="K2">
-        <v>1.026239292359949</v>
+        <v>1.014910753397613</v>
       </c>
       <c r="L2">
-        <v>1.02178408081615</v>
+        <v>1.001899106209321</v>
       </c>
       <c r="M2">
-        <v>1.018776895882761</v>
+        <v>0.9691988186735878</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.018641279331411</v>
+        <v>0.9866823439261853</v>
       </c>
       <c r="D3">
-        <v>1.02421460950286</v>
+        <v>1.007552116354408</v>
       </c>
       <c r="E3">
-        <v>1.01985983518596</v>
+        <v>0.9946541441699085</v>
       </c>
       <c r="F3">
-        <v>1.017649398123509</v>
+        <v>0.9653413883578652</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.027276406361592</v>
+        <v>1.039845521827299</v>
       </c>
       <c r="J3">
-        <v>1.023489949910739</v>
+        <v>1.007542765242068</v>
       </c>
       <c r="K3">
-        <v>1.026853009402694</v>
+        <v>1.018089269865249</v>
       </c>
       <c r="L3">
-        <v>1.022510164933683</v>
+        <v>1.005355886309721</v>
       </c>
       <c r="M3">
-        <v>1.02030582566243</v>
+        <v>0.9764378188275739</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.01934073110362</v>
+        <v>0.990088520639957</v>
       </c>
       <c r="D4">
-        <v>1.024735482784014</v>
+        <v>1.010103469913794</v>
       </c>
       <c r="E4">
-        <v>1.020455173958533</v>
+        <v>0.9974014011976874</v>
       </c>
       <c r="F4">
-        <v>1.018765352390039</v>
+        <v>0.9705138606334948</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.027405610608922</v>
+        <v>1.040805932586319</v>
       </c>
       <c r="J4">
-        <v>1.023952868757091</v>
+        <v>1.009749206713584</v>
       </c>
       <c r="K4">
-        <v>1.027248272090583</v>
+        <v>1.020081465361995</v>
       </c>
       <c r="L4">
-        <v>1.022979096177411</v>
+        <v>1.007531290529476</v>
       </c>
       <c r="M4">
-        <v>1.021293697580629</v>
+        <v>0.980981685116789</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.019634595154042</v>
+        <v>0.99149930978872</v>
       </c>
       <c r="D5">
-        <v>1.024954169127289</v>
+        <v>1.011159838366435</v>
       </c>
       <c r="E5">
-        <v>1.020705389772821</v>
+        <v>0.998540753600817</v>
       </c>
       <c r="F5">
-        <v>1.019234264465888</v>
+        <v>0.972653356609147</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.027459369549374</v>
+        <v>1.041199448457012</v>
       </c>
       <c r="J5">
-        <v>1.024147171354864</v>
+        <v>1.010661635264924</v>
       </c>
       <c r="K5">
-        <v>1.02741399762755</v>
+        <v>1.020904144203958</v>
       </c>
       <c r="L5">
-        <v>1.023176022035219</v>
+        <v>1.00843177916983</v>
       </c>
       <c r="M5">
-        <v>1.021708660131189</v>
+        <v>0.982860224294731</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.019683925405109</v>
+        <v>0.9917349748140497</v>
       </c>
       <c r="D6">
-        <v>1.024990870611201</v>
+        <v>1.011336275377618</v>
       </c>
       <c r="E6">
-        <v>1.020747398351298</v>
+        <v>0.9987311618837893</v>
       </c>
       <c r="F6">
-        <v>1.01931298334031</v>
+        <v>0.973010593687538</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.027468363163718</v>
+        <v>1.04126493007877</v>
       </c>
       <c r="J6">
-        <v>1.024179777564817</v>
+        <v>1.01081396598381</v>
       </c>
       <c r="K6">
-        <v>1.027441797725</v>
+        <v>1.021041422131588</v>
       </c>
       <c r="L6">
-        <v>1.023209074304714</v>
+        <v>1.008582168907411</v>
       </c>
       <c r="M6">
-        <v>1.021778314528212</v>
+        <v>0.9831738318280288</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.019344658455674</v>
+        <v>0.9901074535384708</v>
       </c>
       <c r="D7">
-        <v>1.024738406015585</v>
+        <v>1.010117648013245</v>
       </c>
       <c r="E7">
-        <v>1.020458517607056</v>
+        <v>0.9974166856185459</v>
       </c>
       <c r="F7">
-        <v>1.018771618928847</v>
+        <v>0.9705425835357681</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.027406331133</v>
+        <v>1.04081123058659</v>
       </c>
       <c r="J7">
-        <v>1.023955466248429</v>
+        <v>1.009761457328802</v>
       </c>
       <c r="K7">
-        <v>1.027250488262688</v>
+        <v>1.020092515580501</v>
       </c>
       <c r="L7">
-        <v>1.022981728345308</v>
+        <v>1.007543377303754</v>
       </c>
       <c r="M7">
-        <v>1.021299243652166</v>
+        <v>0.9810069084559188</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.017924998380114</v>
+        <v>0.9831222917739141</v>
       </c>
       <c r="D8">
-        <v>1.023680692622323</v>
+        <v>1.004884473901368</v>
       </c>
       <c r="E8">
-        <v>1.019250492143294</v>
+        <v>0.9917880793002518</v>
       </c>
       <c r="F8">
-        <v>1.016506784903975</v>
+        <v>0.9599238336676318</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.027142306924615</v>
+        <v>1.03882705440773</v>
       </c>
       <c r="J8">
-        <v>1.023015259973391</v>
+        <v>1.005231671555702</v>
       </c>
       <c r="K8">
-        <v>1.026447085118599</v>
+        <v>1.015998685902944</v>
       </c>
       <c r="L8">
-        <v>1.022029650078783</v>
+        <v>1.003080447393018</v>
       </c>
       <c r="M8">
-        <v>1.019293909375985</v>
+        <v>0.9716754925492216</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.015417280839279</v>
+        <v>0.9700526431545088</v>
       </c>
       <c r="D9">
-        <v>1.02180757455596</v>
+        <v>0.9950876115498707</v>
       </c>
       <c r="E9">
-        <v>1.017119646514397</v>
+        <v>0.9813110009986517</v>
       </c>
       <c r="F9">
-        <v>1.012507646697246</v>
+        <v>0.9399152242539572</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.0266591824082</v>
+        <v>1.034976320037877</v>
       </c>
       <c r="J9">
-        <v>1.02134852342094</v>
+        <v>0.9967091220069922</v>
       </c>
       <c r="K9">
-        <v>1.025017155716229</v>
+        <v>1.008260894820274</v>
       </c>
       <c r="L9">
-        <v>1.020345070067533</v>
+        <v>0.9947147509398298</v>
       </c>
       <c r="M9">
-        <v>1.015748813466623</v>
+        <v>0.9540646552738213</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.013741235065084</v>
+        <v>0.9607492879348897</v>
       </c>
       <c r="D10">
-        <v>1.020552532862007</v>
+        <v>0.9881165861540583</v>
       </c>
       <c r="E10">
-        <v>1.01569756431084</v>
+        <v>0.9738944208647639</v>
       </c>
       <c r="F10">
-        <v>1.009835468157138</v>
+        <v>0.9255333110893355</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.026325064581994</v>
+        <v>1.032145686071138</v>
       </c>
       <c r="J10">
-        <v>1.02023057157659</v>
+        <v>0.9906116479904723</v>
       </c>
       <c r="K10">
-        <v>1.024054246803869</v>
+        <v>1.002703766071906</v>
       </c>
       <c r="L10">
-        <v>1.019217304709761</v>
+        <v>0.9887515780388869</v>
       </c>
       <c r="M10">
-        <v>1.013377230324225</v>
+        <v>0.9413911673728548</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.01301445309697</v>
+        <v>0.9565606108573269</v>
       </c>
       <c r="D11">
-        <v>1.02000758030485</v>
+        <v>0.9849801504587424</v>
       </c>
       <c r="E11">
-        <v>1.015081409581992</v>
+        <v>0.970566100066337</v>
       </c>
       <c r="F11">
-        <v>1.00867681532703</v>
+        <v>0.9190132578345657</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026177529600688</v>
+        <v>1.030850997671128</v>
       </c>
       <c r="J11">
-        <v>1.019744853838168</v>
+        <v>0.9878592374380536</v>
       </c>
       <c r="K11">
-        <v>1.023635000857672</v>
+        <v>1.000190988848938</v>
       </c>
       <c r="L11">
-        <v>1.018727834530254</v>
+        <v>0.9860652950976393</v>
       </c>
       <c r="M11">
-        <v>1.012348256564307</v>
+        <v>0.9356431132230488</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.012744334376385</v>
+        <v>0.9549787091526788</v>
       </c>
       <c r="D12">
-        <v>1.01980493241845</v>
+        <v>0.9837961018639469</v>
       </c>
       <c r="E12">
-        <v>1.014852483023902</v>
+        <v>0.9693108519200747</v>
       </c>
       <c r="F12">
-        <v>1.008246191455799</v>
+        <v>0.9165429652716557</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026122298464311</v>
+        <v>1.030359093592863</v>
       </c>
       <c r="J12">
-        <v>1.019564188769725</v>
+        <v>0.9868187007971924</v>
       </c>
       <c r="K12">
-        <v>1.023478927405718</v>
+        <v>0.9992404696502306</v>
       </c>
       <c r="L12">
-        <v>1.018545850558692</v>
+        <v>0.9850506108995897</v>
       </c>
       <c r="M12">
-        <v>1.011965730410637</v>
+        <v>0.9334650402031492</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.012802283023989</v>
+        <v>0.9553192448852605</v>
       </c>
       <c r="D13">
-        <v>1.01984841142601</v>
+        <v>0.9840509686170381</v>
       </c>
       <c r="E13">
-        <v>1.014901591255269</v>
+        <v>0.9695809892443509</v>
       </c>
       <c r="F13">
-        <v>1.00833857316546</v>
+        <v>0.9170751231891781</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.026134165199431</v>
+        <v>1.030465117390495</v>
       </c>
       <c r="J13">
-        <v>1.019602953287805</v>
+        <v>0.9870427445215868</v>
       </c>
       <c r="K13">
-        <v>1.023512421407183</v>
+        <v>0.9994451560152964</v>
       </c>
       <c r="L13">
-        <v>1.018584894591283</v>
+        <v>0.9852690492148484</v>
       </c>
       <c r="M13">
-        <v>1.01204779818138</v>
+        <v>0.9339342577435057</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.012992128270233</v>
+        <v>0.9564303937629142</v>
       </c>
       <c r="D14">
-        <v>1.019990834030468</v>
+        <v>0.9848826731475621</v>
       </c>
       <c r="E14">
-        <v>1.015062487659491</v>
+        <v>0.9704627363547732</v>
       </c>
       <c r="F14">
-        <v>1.008641224959</v>
+        <v>0.9188100793868599</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026172972953675</v>
+        <v>1.030810565026695</v>
       </c>
       <c r="J14">
-        <v>1.019729925074897</v>
+        <v>0.9877736051798875</v>
       </c>
       <c r="K14">
-        <v>1.023622106860433</v>
+        <v>1.000112775938353</v>
       </c>
       <c r="L14">
-        <v>1.018712795216108</v>
+        <v>0.9859817729257078</v>
       </c>
       <c r="M14">
-        <v>1.0123166434063</v>
+        <v>0.9354639743283478</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.013109076966806</v>
+        <v>0.9571114959967008</v>
       </c>
       <c r="D15">
-        <v>1.020078555016869</v>
+        <v>0.9853925491636805</v>
       </c>
       <c r="E15">
-        <v>1.015161613343776</v>
+        <v>0.9710034525918853</v>
       </c>
       <c r="F15">
-        <v>1.00882766544373</v>
+        <v>0.9198724772865582</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026196826689602</v>
+        <v>1.031021929050408</v>
       </c>
       <c r="J15">
-        <v>1.019808123680505</v>
+        <v>0.9882214628949542</v>
       </c>
       <c r="K15">
-        <v>1.023689641689544</v>
+        <v>1.000521807421898</v>
       </c>
       <c r="L15">
-        <v>1.018791576045142</v>
+        <v>0.9864186297235812</v>
       </c>
       <c r="M15">
-        <v>1.012482245199141</v>
+        <v>0.9364006616282712</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.013789446973555</v>
+        <v>0.9610237376909314</v>
       </c>
       <c r="D16">
-        <v>1.020588667627138</v>
+        <v>0.9883221472017455</v>
       </c>
       <c r="E16">
-        <v>1.0157384482495</v>
+        <v>0.974112731938939</v>
       </c>
       <c r="F16">
-        <v>1.009912329867372</v>
+        <v>0.9259594912171101</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.026334795704764</v>
+        <v>1.032230104143718</v>
       </c>
       <c r="J16">
-        <v>1.020262772407365</v>
+        <v>0.9907918443445125</v>
       </c>
       <c r="K16">
-        <v>1.024082022208322</v>
+        <v>1.002868190901547</v>
       </c>
       <c r="L16">
-        <v>1.019249765069332</v>
+        <v>0.988927561272923</v>
       </c>
       <c r="M16">
-        <v>1.013445475649278</v>
+        <v>0.9417668426446412</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.01421594385352</v>
+        <v>0.9634335608040423</v>
       </c>
       <c r="D17">
-        <v>1.020908242356359</v>
+        <v>0.9901273478236299</v>
       </c>
       <c r="E17">
-        <v>1.016100177681017</v>
+        <v>0.9760308666987524</v>
       </c>
       <c r="F17">
-        <v>1.010592279975688</v>
+        <v>0.9296963946282355</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.02642057408674</v>
+        <v>1.032969062301338</v>
       </c>
       <c r="J17">
-        <v>1.020547521879609</v>
+        <v>0.9923732652985894</v>
       </c>
       <c r="K17">
-        <v>1.024327535457025</v>
+        <v>1.004310723445686</v>
       </c>
       <c r="L17">
-        <v>1.019536868494491</v>
+        <v>0.99047263217661</v>
       </c>
       <c r="M17">
-        <v>1.014049125688754</v>
+        <v>0.945060628388779</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.0144646118186</v>
+        <v>0.9648238508601984</v>
       </c>
       <c r="D18">
-        <v>1.021094499161987</v>
+        <v>0.9911690083943921</v>
       </c>
       <c r="E18">
-        <v>1.016311131422917</v>
+        <v>0.9771385065004203</v>
       </c>
       <c r="F18">
-        <v>1.010988731485821</v>
+        <v>0.9318481710026776</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.026470331271095</v>
+        <v>1.033393472486927</v>
       </c>
       <c r="J18">
-        <v>1.020713453592687</v>
+        <v>0.9932849560574264</v>
       </c>
       <c r="K18">
-        <v>1.024470517350835</v>
+        <v>1.005141937469517</v>
       </c>
       <c r="L18">
-        <v>1.019704221151301</v>
+        <v>0.9913638831603255</v>
       </c>
       <c r="M18">
-        <v>1.014401026184804</v>
+        <v>0.9469570058655097</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.014549384215175</v>
+        <v>0.9652953614264468</v>
       </c>
       <c r="D19">
-        <v>1.021157983236882</v>
+        <v>0.9915223116353499</v>
       </c>
       <c r="E19">
-        <v>1.016383054983534</v>
+        <v>0.9775143273585207</v>
       </c>
       <c r="F19">
-        <v>1.011123885773421</v>
+        <v>0.9325772661159785</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.026487250401085</v>
+        <v>1.033537081956697</v>
       </c>
       <c r="J19">
-        <v>1.020770005303728</v>
+        <v>0.993594037333779</v>
       </c>
       <c r="K19">
-        <v>1.02451923289347</v>
+        <v>1.005423664500574</v>
       </c>
       <c r="L19">
-        <v>1.019761265487823</v>
+        <v>0.9916661217667931</v>
       </c>
       <c r="M19">
-        <v>1.014520981803951</v>
+        <v>0.9475995188974685</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.014170195186135</v>
+        <v>0.9631766075651621</v>
       </c>
       <c r="D20">
-        <v>1.02087397009508</v>
+        <v>0.9899348429174203</v>
       </c>
       <c r="E20">
-        <v>1.016061371367202</v>
+        <v>0.9758262345528279</v>
       </c>
       <c r="F20">
-        <v>1.010519343555699</v>
+        <v>0.9292983762107034</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.026411399418717</v>
+        <v>1.032890467286126</v>
       </c>
       <c r="J20">
-        <v>1.020516987296423</v>
+        <v>0.992204712188323</v>
       </c>
       <c r="K20">
-        <v>1.02430121716396</v>
+        <v>1.004157015393687</v>
       </c>
       <c r="L20">
-        <v>1.019506076395546</v>
+        <v>0.9903078995813595</v>
       </c>
       <c r="M20">
-        <v>1.01398438034112</v>
+        <v>0.9447098311703547</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.012936228003843</v>
+        <v>0.9561039238865362</v>
       </c>
       <c r="D21">
-        <v>1.019948900433635</v>
+        <v>0.9846382937611114</v>
       </c>
       <c r="E21">
-        <v>1.015015109327488</v>
+        <v>0.970203619310037</v>
       </c>
       <c r="F21">
-        <v>1.008552108500798</v>
+        <v>0.9183005548864893</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026161556913021</v>
+        <v>1.030709148389555</v>
       </c>
       <c r="J21">
-        <v>1.019692541906217</v>
+        <v>0.9875588978629518</v>
       </c>
       <c r="K21">
-        <v>1.023589816813257</v>
+        <v>0.9999166622813572</v>
       </c>
       <c r="L21">
-        <v>1.018675136457506</v>
+        <v>0.9857723700858967</v>
       </c>
       <c r="M21">
-        <v>1.012237484085151</v>
+        <v>0.9350147314656512</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.01215945940398</v>
+        <v>0.951505235250057</v>
       </c>
       <c r="D22">
-        <v>1.01936595126461</v>
+        <v>0.9811972317316475</v>
       </c>
       <c r="E22">
-        <v>1.014356939198574</v>
+        <v>0.9665579327262542</v>
       </c>
       <c r="F22">
-        <v>1.007313785808724</v>
+        <v>0.9111027324887995</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.026001982505603</v>
+        <v>1.029273658694874</v>
       </c>
       <c r="J22">
-        <v>1.019172745285161</v>
+        <v>0.9845319961228659</v>
       </c>
       <c r="K22">
-        <v>1.02314052380745</v>
+        <v>0.9971506098328011</v>
       </c>
       <c r="L22">
-        <v>1.018151690059562</v>
+        <v>0.9828223257630722</v>
       </c>
       <c r="M22">
-        <v>1.011137287829489</v>
+        <v>0.9286679793219254</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.01257132771519</v>
+        <v>0.953958195324336</v>
       </c>
       <c r="D23">
-        <v>1.019675109287694</v>
+        <v>0.9830323989117624</v>
       </c>
       <c r="E23">
-        <v>1.014705880754276</v>
+        <v>0.9685015687538071</v>
       </c>
       <c r="F23">
-        <v>1.007970384649254</v>
+        <v>0.9149469380856879</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.026086811947839</v>
+        <v>1.030040937454181</v>
       </c>
       <c r="J23">
-        <v>1.019448435980173</v>
+        <v>0.9861471347821513</v>
       </c>
       <c r="K23">
-        <v>1.023378893243347</v>
+        <v>0.9986268481873268</v>
       </c>
       <c r="L23">
-        <v>1.018429274378744</v>
+        <v>0.9843959742744623</v>
       </c>
       <c r="M23">
-        <v>1.011720701573994</v>
+        <v>0.9320577503737545</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.014190867349998</v>
+        <v>0.963292760868634</v>
       </c>
       <c r="D24">
-        <v>1.020889456705052</v>
+        <v>0.990021862367117</v>
       </c>
       <c r="E24">
-        <v>1.016078906384106</v>
+        <v>0.9759187334445582</v>
       </c>
       <c r="F24">
-        <v>1.010552300852707</v>
+        <v>0.9294783094760634</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026415545908778</v>
+        <v>1.032926001375484</v>
       </c>
       <c r="J24">
-        <v>1.020530785047862</v>
+        <v>0.9922809071307329</v>
       </c>
       <c r="K24">
-        <v>1.024313109953169</v>
+        <v>1.004226500852998</v>
       </c>
       <c r="L24">
-        <v>1.019519990359228</v>
+        <v>0.9903823658476876</v>
       </c>
       <c r="M24">
-        <v>1.014013636588841</v>
+        <v>0.9448684177852076</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.016066322145164</v>
+        <v>0.9735292441948016</v>
       </c>
       <c r="D25">
-        <v>1.022292926547201</v>
+        <v>0.997693643673093</v>
       </c>
       <c r="E25">
-        <v>1.017670783409176</v>
+        <v>0.9840912318241681</v>
       </c>
       <c r="F25">
-        <v>1.013542550847414</v>
+        <v>0.9452579767907751</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.026786201861421</v>
+        <v>1.036016259385497</v>
       </c>
       <c r="J25">
-        <v>1.021780605678944</v>
+        <v>0.9989815166427347</v>
       </c>
       <c r="K25">
-        <v>1.025388518674154</v>
+        <v>1.010327868672724</v>
       </c>
       <c r="L25">
-        <v>1.020781399307345</v>
+        <v>0.9969416354625417</v>
       </c>
       <c r="M25">
-        <v>1.01666671213319</v>
+        <v>0.9587700162505028</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_33/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_33/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9812750133823841</v>
+        <v>1.019297404503916</v>
       </c>
       <c r="D2">
-        <v>1.003499964226778</v>
+        <v>1.034374151916141</v>
       </c>
       <c r="E2">
-        <v>0.9903030030288308</v>
+        <v>1.022362663215081</v>
       </c>
       <c r="F2">
-        <v>0.9571077180409761</v>
+        <v>1.024981833015218</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038293036964869</v>
+        <v>1.054379590393337</v>
       </c>
       <c r="J2">
-        <v>1.004030583141123</v>
+        <v>1.040915864436</v>
       </c>
       <c r="K2">
-        <v>1.014910753397613</v>
+        <v>1.045374503691558</v>
       </c>
       <c r="L2">
-        <v>1.001899106209321</v>
+        <v>1.033518999618436</v>
       </c>
       <c r="M2">
-        <v>0.9691988186735878</v>
+        <v>1.036103765615876</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.037146091285008</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.043153981258582</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9866823439261853</v>
+        <v>1.02419441456637</v>
       </c>
       <c r="D3">
-        <v>1.007552116354408</v>
+        <v>1.037765997691943</v>
       </c>
       <c r="E3">
-        <v>0.9946541441699085</v>
+        <v>1.026407741774833</v>
       </c>
       <c r="F3">
-        <v>0.9653413883578652</v>
+        <v>1.028496817297456</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039845521827299</v>
+        <v>1.056065958388298</v>
       </c>
       <c r="J3">
-        <v>1.007542765242068</v>
+        <v>1.044046562579678</v>
       </c>
       <c r="K3">
-        <v>1.018089269865249</v>
+        <v>1.047937425513072</v>
       </c>
       <c r="L3">
-        <v>1.005355886309721</v>
+        <v>1.036713522600316</v>
       </c>
       <c r="M3">
-        <v>0.9764378188275739</v>
+        <v>1.038777611046724</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.039262267437933</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.044963523005592</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.990088520639957</v>
+        <v>1.027290671931549</v>
       </c>
       <c r="D4">
-        <v>1.010103469913794</v>
+        <v>1.03991358917732</v>
       </c>
       <c r="E4">
-        <v>0.9974014011976874</v>
+        <v>1.028969521985162</v>
       </c>
       <c r="F4">
-        <v>0.9705138606334948</v>
+        <v>1.030729688883589</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040805932586319</v>
+        <v>1.057120969639469</v>
       </c>
       <c r="J4">
-        <v>1.009749206713584</v>
+        <v>1.046021136119297</v>
       </c>
       <c r="K4">
-        <v>1.020081465361995</v>
+        <v>1.049553024437831</v>
       </c>
       <c r="L4">
-        <v>1.007531290529476</v>
+        <v>1.038730444257609</v>
       </c>
       <c r="M4">
-        <v>0.980981685116789</v>
+        <v>1.040470857734283</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.040602359719265</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.046106764520646</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.99149930978872</v>
+        <v>1.028582962166075</v>
       </c>
       <c r="D5">
-        <v>1.011159838366435</v>
+        <v>1.040813409980094</v>
       </c>
       <c r="E5">
-        <v>0.998540753600817</v>
+        <v>1.030041674655156</v>
       </c>
       <c r="F5">
-        <v>0.972653356609147</v>
+        <v>1.031661956112685</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041199448457012</v>
+        <v>1.057560878895286</v>
       </c>
       <c r="J5">
-        <v>1.010661635264924</v>
+        <v>1.046846538322241</v>
       </c>
       <c r="K5">
-        <v>1.020904144203958</v>
+        <v>1.050230102443903</v>
       </c>
       <c r="L5">
-        <v>1.00843177916983</v>
+        <v>1.039574694598114</v>
       </c>
       <c r="M5">
-        <v>0.982860224294731</v>
+        <v>1.041177287628595</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.041161451319878</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.046592616633085</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9917349748140497</v>
+        <v>1.028807894826757</v>
       </c>
       <c r="D6">
-        <v>1.011336275377618</v>
+        <v>1.040973466244753</v>
       </c>
       <c r="E6">
-        <v>0.9987311618837893</v>
+        <v>1.030230748413543</v>
       </c>
       <c r="F6">
-        <v>0.973010593687538</v>
+        <v>1.031821785293501</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04126493007877</v>
+        <v>1.057640112558712</v>
       </c>
       <c r="J6">
-        <v>1.01081396598381</v>
+        <v>1.046993151617658</v>
       </c>
       <c r="K6">
-        <v>1.021041422131588</v>
+        <v>1.050352714268695</v>
       </c>
       <c r="L6">
-        <v>1.008582168907411</v>
+        <v>1.039725467256365</v>
       </c>
       <c r="M6">
-        <v>0.9831738318280288</v>
+        <v>1.041299216429545</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.041257949695851</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.046687978920014</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9901074535384708</v>
+        <v>1.027332197767729</v>
       </c>
       <c r="D7">
-        <v>1.010117648013245</v>
+        <v>1.039951645351273</v>
       </c>
       <c r="E7">
-        <v>0.9974166856185459</v>
+        <v>1.029010555529509</v>
       </c>
       <c r="F7">
-        <v>0.9705425835357681</v>
+        <v>1.030752639464187</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04081123058659</v>
+        <v>1.0571427454527</v>
       </c>
       <c r="J7">
-        <v>1.009761457328802</v>
+        <v>1.046055829296433</v>
       </c>
       <c r="K7">
-        <v>1.020092515580501</v>
+        <v>1.049587815790259</v>
       </c>
       <c r="L7">
-        <v>1.007543377303754</v>
+        <v>1.038768128061519</v>
       </c>
       <c r="M7">
-        <v>0.9810069084559188</v>
+        <v>1.040490669524542</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.040618039420516</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.046151305358833</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9831222917739141</v>
+        <v>1.020998986902221</v>
       </c>
       <c r="D8">
-        <v>1.004884473901368</v>
+        <v>1.035563646285959</v>
       </c>
       <c r="E8">
-        <v>0.9917880793002518</v>
+        <v>1.023776193105433</v>
       </c>
       <c r="F8">
-        <v>0.9599238336676318</v>
+        <v>1.026192078902932</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03882705440773</v>
+        <v>1.054977436744698</v>
       </c>
       <c r="J8">
-        <v>1.005231671555702</v>
+        <v>1.042015106740418</v>
       </c>
       <c r="K8">
-        <v>1.015998685902944</v>
+        <v>1.046282505921391</v>
       </c>
       <c r="L8">
-        <v>1.003080447393018</v>
+        <v>1.034643451150602</v>
       </c>
       <c r="M8">
-        <v>0.9716754925492216</v>
+        <v>1.037028575303467</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.037878019196797</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.043818761028504</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9700526431545088</v>
+        <v>1.009212799119968</v>
       </c>
       <c r="D9">
-        <v>0.9950876115498707</v>
+        <v>1.027409202270229</v>
       </c>
       <c r="E9">
-        <v>0.9813110009986517</v>
+        <v>1.014059086213165</v>
       </c>
       <c r="F9">
-        <v>0.9399152242539572</v>
+        <v>1.017803016356792</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034976320037877</v>
+        <v>1.050847333890182</v>
       </c>
       <c r="J9">
-        <v>0.9967091220069922</v>
+        <v>1.034444372236198</v>
       </c>
       <c r="K9">
-        <v>1.008260894820274</v>
+        <v>1.040072703224834</v>
       </c>
       <c r="L9">
-        <v>0.9947147509398298</v>
+        <v>1.026928109568739</v>
       </c>
       <c r="M9">
-        <v>0.9540646552738213</v>
+        <v>1.03061370769602</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.032801044869158</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.039424889030095</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9607492879348897</v>
+        <v>1.001131037201526</v>
       </c>
       <c r="D10">
-        <v>0.9881165861540583</v>
+        <v>1.021864726366986</v>
       </c>
       <c r="E10">
-        <v>0.9738944208647639</v>
+        <v>1.007466471272228</v>
       </c>
       <c r="F10">
-        <v>0.9255333110893355</v>
+        <v>1.012327554075726</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032145686071138</v>
+        <v>1.048002491588868</v>
       </c>
       <c r="J10">
-        <v>0.9906116479904723</v>
+        <v>1.029299852381335</v>
       </c>
       <c r="K10">
-        <v>1.002703766071906</v>
+        <v>1.035850118041099</v>
       </c>
       <c r="L10">
-        <v>0.9887515780388869</v>
+        <v>1.021702212290252</v>
       </c>
       <c r="M10">
-        <v>0.9413911673728548</v>
+        <v>1.026477741669242</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.029579661799044</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.036456030087822</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9565606108573269</v>
+        <v>0.9992153987725104</v>
       </c>
       <c r="D11">
-        <v>0.9849801504587424</v>
+        <v>1.020750168261708</v>
       </c>
       <c r="E11">
-        <v>0.970566100066337</v>
+        <v>1.006257267238484</v>
       </c>
       <c r="F11">
-        <v>0.9190132578345657</v>
+        <v>1.012771235890502</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030850997671128</v>
+        <v>1.047649676978716</v>
       </c>
       <c r="J11">
-        <v>0.9878592374380536</v>
+        <v>1.028620854539633</v>
       </c>
       <c r="K11">
-        <v>1.000190988848938</v>
+        <v>1.035291096426573</v>
       </c>
       <c r="L11">
-        <v>0.9860652950976393</v>
+        <v>1.021062137598685</v>
       </c>
       <c r="M11">
-        <v>0.9356431132230488</v>
+        <v>1.027456258462511</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.03079416620522</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.03609357559969</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9549787091526788</v>
+        <v>0.9990629317172632</v>
       </c>
       <c r="D12">
-        <v>0.9837961018639469</v>
+        <v>1.020782442226433</v>
       </c>
       <c r="E12">
-        <v>0.9693108519200747</v>
+        <v>1.006391074524188</v>
       </c>
       <c r="F12">
-        <v>0.9165429652716557</v>
+        <v>1.013890981232936</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030359093592863</v>
+        <v>1.047825254770214</v>
       </c>
       <c r="J12">
-        <v>0.9868187007971924</v>
+        <v>1.028907002970728</v>
       </c>
       <c r="K12">
-        <v>0.9992404696502306</v>
+        <v>1.035522028219601</v>
       </c>
       <c r="L12">
-        <v>0.9850506108995897</v>
+        <v>1.02139684745163</v>
       </c>
       <c r="M12">
-        <v>0.9334650402031492</v>
+        <v>1.028756804602204</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.03215153223605</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.03625685133177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9553192448852605</v>
+        <v>1.000280299825551</v>
       </c>
       <c r="D13">
-        <v>0.9840509686170381</v>
+        <v>1.021724882472745</v>
       </c>
       <c r="E13">
-        <v>0.9695809892443509</v>
+        <v>1.007591501440262</v>
       </c>
       <c r="F13">
-        <v>0.9170751231891781</v>
+        <v>1.015635461769613</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030465117390495</v>
+        <v>1.048439265650399</v>
       </c>
       <c r="J13">
-        <v>0.9870427445215868</v>
+        <v>1.029980223933897</v>
       </c>
       <c r="K13">
-        <v>0.9994451560152964</v>
+        <v>1.036404699109851</v>
       </c>
       <c r="L13">
-        <v>0.9852690492148484</v>
+        <v>1.022531140886505</v>
       </c>
       <c r="M13">
-        <v>0.9339342577435057</v>
+        <v>1.030426069333786</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.033749517596465</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.036878439160888</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9564303937629142</v>
+        <v>1.001731151949943</v>
       </c>
       <c r="D14">
-        <v>0.9848826731475621</v>
+        <v>1.022781623293355</v>
       </c>
       <c r="E14">
-        <v>0.9704627363547732</v>
+        <v>1.008894330348352</v>
       </c>
       <c r="F14">
-        <v>0.9188100793868599</v>
+        <v>1.017107474132643</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030810565026695</v>
+        <v>1.049056479574571</v>
       </c>
       <c r="J14">
-        <v>0.9877736051798875</v>
+        <v>1.031067641294417</v>
       </c>
       <c r="K14">
-        <v>1.000112775938353</v>
+        <v>1.037302753661403</v>
       </c>
       <c r="L14">
-        <v>0.9859817729257078</v>
+        <v>1.023667191004255</v>
       </c>
       <c r="M14">
-        <v>0.9354639743283478</v>
+        <v>1.031730378054661</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.034954556878507</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.037514811045675</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9571114959967008</v>
+        <v>1.002407735621999</v>
       </c>
       <c r="D15">
-        <v>0.9853925491636805</v>
+        <v>1.023259362774511</v>
       </c>
       <c r="E15">
-        <v>0.9710034525918853</v>
+        <v>1.009469502846821</v>
       </c>
       <c r="F15">
-        <v>0.9198724772865582</v>
+        <v>1.017655705514549</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031021929050408</v>
+        <v>1.049317519236773</v>
       </c>
       <c r="J15">
-        <v>0.9882214628949542</v>
+        <v>1.031530207032835</v>
       </c>
       <c r="K15">
-        <v>1.000521807421898</v>
+        <v>1.03768601104084</v>
       </c>
       <c r="L15">
-        <v>0.9864186297235812</v>
+        <v>1.024144072814649</v>
       </c>
       <c r="M15">
-        <v>0.9364006616282712</v>
+        <v>1.032182046742589</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.035349215663217</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.037791637012325</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9610237376909314</v>
+        <v>1.00556329629082</v>
       </c>
       <c r="D16">
-        <v>0.9883221472017455</v>
+        <v>1.025400496841699</v>
       </c>
       <c r="E16">
-        <v>0.974112731938939</v>
+        <v>1.011990929612608</v>
       </c>
       <c r="F16">
-        <v>0.9259594912171101</v>
+        <v>1.019664249955457</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032230104143718</v>
+        <v>1.050401910343928</v>
       </c>
       <c r="J16">
-        <v>0.9907918443445125</v>
+        <v>1.033481828423324</v>
       </c>
       <c r="K16">
-        <v>1.002868190901547</v>
+        <v>1.039290420796646</v>
       </c>
       <c r="L16">
-        <v>0.988927561272923</v>
+        <v>1.026110955357427</v>
       </c>
       <c r="M16">
-        <v>0.9417668426446412</v>
+        <v>1.033651648057379</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.036471942694822</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.038929153409749</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9634335608040423</v>
+        <v>1.007241604261429</v>
       </c>
       <c r="D17">
-        <v>0.9901273478236299</v>
+        <v>1.026504276196883</v>
       </c>
       <c r="E17">
-        <v>0.9760308666987524</v>
+        <v>1.013261599299062</v>
       </c>
       <c r="F17">
-        <v>0.9296963946282355</v>
+        <v>1.020444278530759</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032969062301338</v>
+        <v>1.05091710888845</v>
       </c>
       <c r="J17">
-        <v>0.9923732652985894</v>
+        <v>1.034424314742405</v>
       </c>
       <c r="K17">
-        <v>1.004310723445686</v>
+        <v>1.040063018278008</v>
       </c>
       <c r="L17">
-        <v>0.99047263217661</v>
+        <v>1.027041032599779</v>
       </c>
       <c r="M17">
-        <v>0.945060628388779</v>
+        <v>1.034103095849199</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.03669931502457</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.039477978456056</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9648238508601984</v>
+        <v>1.007721788076377</v>
       </c>
       <c r="D18">
-        <v>0.9911690083943921</v>
+        <v>1.026743935108615</v>
       </c>
       <c r="E18">
-        <v>0.9771385065004203</v>
+        <v>1.01348482328475</v>
       </c>
       <c r="F18">
-        <v>0.9318481710026776</v>
+        <v>1.020055410247954</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033393472486927</v>
+        <v>1.050940733564963</v>
       </c>
       <c r="J18">
-        <v>0.9932849560574264</v>
+        <v>1.03449621641164</v>
       </c>
       <c r="K18">
-        <v>1.005141937469517</v>
+        <v>1.040116466802019</v>
       </c>
       <c r="L18">
-        <v>0.9913638831603255</v>
+        <v>1.027074781114915</v>
       </c>
       <c r="M18">
-        <v>0.9469570058655097</v>
+        <v>1.0335367135932</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.036012908806234</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.039504182230566</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9652953614264468</v>
+        <v>1.007093164100705</v>
       </c>
       <c r="D19">
-        <v>0.9915223116353499</v>
+        <v>1.026194851999404</v>
       </c>
       <c r="E19">
-        <v>0.9775143273585207</v>
+        <v>1.012746904943374</v>
       </c>
       <c r="F19">
-        <v>0.9325772661159785</v>
+        <v>1.018503469327283</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033537081956697</v>
+        <v>1.050513063680635</v>
       </c>
       <c r="J19">
-        <v>0.993594037333779</v>
+        <v>1.033757775652705</v>
       </c>
       <c r="K19">
-        <v>1.005423664500574</v>
+        <v>1.039514040484864</v>
       </c>
       <c r="L19">
-        <v>0.9916661217667931</v>
+        <v>1.02628579548296</v>
       </c>
       <c r="M19">
-        <v>0.9475995188974685</v>
+        <v>1.031947400595687</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.034428893226782</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.039084622262586</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9631766075651621</v>
+        <v>1.003309378961419</v>
       </c>
       <c r="D20">
-        <v>0.9899348429174203</v>
+        <v>1.023382824871573</v>
       </c>
       <c r="E20">
-        <v>0.9758262345528279</v>
+        <v>1.009264425962022</v>
       </c>
       <c r="F20">
-        <v>0.9292983762107034</v>
+        <v>1.013791987485403</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032890467286126</v>
+        <v>1.048794631680161</v>
       </c>
       <c r="J20">
-        <v>0.992204712188323</v>
+        <v>1.030713322976334</v>
       </c>
       <c r="K20">
-        <v>1.004157015393687</v>
+        <v>1.037026609753242</v>
       </c>
       <c r="L20">
-        <v>0.9903078995813595</v>
+        <v>1.023146304524597</v>
       </c>
       <c r="M20">
-        <v>0.9447098311703547</v>
+        <v>1.027596580507846</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.030454451434633</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.037329853822476</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9561039238865362</v>
+        <v>0.9968700860743445</v>
       </c>
       <c r="D21">
-        <v>0.9846382937611114</v>
+        <v>1.018933379447956</v>
       </c>
       <c r="E21">
-        <v>0.970203619310037</v>
+        <v>1.003955221262473</v>
       </c>
       <c r="F21">
-        <v>0.9183005548864893</v>
+        <v>1.009111528100641</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030709148389555</v>
+        <v>1.046442362556115</v>
       </c>
       <c r="J21">
-        <v>0.9875588978629518</v>
+        <v>1.02649925308299</v>
       </c>
       <c r="K21">
-        <v>0.9999166622813572</v>
+        <v>1.033564717169402</v>
       </c>
       <c r="L21">
-        <v>0.9857723700858967</v>
+        <v>1.018862046217535</v>
       </c>
       <c r="M21">
-        <v>0.9350147314656512</v>
+        <v>1.023922311743268</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.027505176106615</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.034885419389109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.951505235250057</v>
+        <v>0.9927852665003962</v>
       </c>
       <c r="D22">
-        <v>0.9811972317316475</v>
+        <v>1.01611803367655</v>
       </c>
       <c r="E22">
-        <v>0.9665579327262542</v>
+        <v>1.000605027159171</v>
       </c>
       <c r="F22">
-        <v>0.9111027324887995</v>
+        <v>1.006274185442351</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029273658694874</v>
+        <v>1.044950758599102</v>
       </c>
       <c r="J22">
-        <v>0.9845319961228659</v>
+        <v>1.023845420353696</v>
       </c>
       <c r="K22">
-        <v>0.9971506098328011</v>
+        <v>1.031376811598048</v>
       </c>
       <c r="L22">
-        <v>0.9828223257630722</v>
+        <v>1.016164507864218</v>
       </c>
       <c r="M22">
-        <v>0.9286679793219254</v>
+        <v>1.021722365805977</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.02576403203988</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.033324977599134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.953958195324336</v>
+        <v>0.9949351138689946</v>
       </c>
       <c r="D23">
-        <v>0.9830323989117624</v>
+        <v>1.017590287106957</v>
       </c>
       <c r="E23">
-        <v>0.9685015687538071</v>
+        <v>1.002359352601701</v>
       </c>
       <c r="F23">
-        <v>0.9149469380856879</v>
+        <v>1.007772855545271</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030040937454181</v>
+        <v>1.045729833053963</v>
       </c>
       <c r="J23">
-        <v>0.9861471347821513</v>
+        <v>1.025234380061338</v>
       </c>
       <c r="K23">
-        <v>0.9986268481873268</v>
+        <v>1.032516214955917</v>
       </c>
       <c r="L23">
-        <v>0.9843959742744623</v>
+        <v>1.017572483189876</v>
       </c>
       <c r="M23">
-        <v>0.9320577503737545</v>
+        <v>1.02288260606235</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.026682303083484</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.034120941629648</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.963292760868634</v>
+        <v>1.003211917480203</v>
       </c>
       <c r="D24">
-        <v>0.990021862367117</v>
+        <v>1.023284526517102</v>
       </c>
       <c r="E24">
-        <v>0.9759187334445582</v>
+        <v>1.009141054733304</v>
       </c>
       <c r="F24">
-        <v>0.9294783094760634</v>
+        <v>1.013562422699634</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032926001375484</v>
+        <v>1.048717997330032</v>
       </c>
       <c r="J24">
-        <v>0.9922809071307329</v>
+        <v>1.030586885424516</v>
       </c>
       <c r="K24">
-        <v>1.004226500852998</v>
+        <v>1.036914716846398</v>
       </c>
       <c r="L24">
-        <v>0.9903823658476876</v>
+        <v>1.023009522580398</v>
       </c>
       <c r="M24">
-        <v>0.9448684177852076</v>
+        <v>1.027355480772047</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.03022234402238</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.037223388862363</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9735292441948016</v>
+        <v>1.012375584250264</v>
       </c>
       <c r="D25">
-        <v>0.997693643673093</v>
+        <v>1.029608777337061</v>
       </c>
       <c r="E25">
-        <v>0.9840912318241681</v>
+        <v>1.016674409911895</v>
       </c>
       <c r="F25">
-        <v>0.9452579767907751</v>
+        <v>1.020032146655186</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036016259385497</v>
+        <v>1.051977715278299</v>
       </c>
       <c r="J25">
-        <v>0.9989815166427347</v>
+        <v>1.036493519746337</v>
       </c>
       <c r="K25">
-        <v>1.010327868672724</v>
+        <v>1.041764207267393</v>
       </c>
       <c r="L25">
-        <v>0.9969416354625417</v>
+        <v>1.02901927639004</v>
       </c>
       <c r="M25">
-        <v>0.9587700162505028</v>
+        <v>1.032327249287636</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.034157211530319</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.040649346710489</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_33/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_33/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.019297404503916</v>
+        <v>1.017731647404032</v>
       </c>
       <c r="D2">
-        <v>1.034374151916141</v>
+        <v>1.032352205893791</v>
       </c>
       <c r="E2">
-        <v>1.022362663215081</v>
+        <v>1.021310371140334</v>
       </c>
       <c r="F2">
-        <v>1.024981833015218</v>
+        <v>1.024303567001105</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.054379590393337</v>
+        <v>1.053218074681439</v>
       </c>
       <c r="J2">
-        <v>1.040915864436</v>
+        <v>1.03939464025272</v>
       </c>
       <c r="K2">
-        <v>1.045374503691558</v>
+        <v>1.043378497488112</v>
       </c>
       <c r="L2">
-        <v>1.033518999618436</v>
+        <v>1.032480592127715</v>
       </c>
       <c r="M2">
-        <v>1.036103765615876</v>
+        <v>1.035434387728991</v>
       </c>
       <c r="N2">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.037146091285008</v>
+        <v>1.03661632089063</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.043153981258582</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.041751371896319</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023141220418201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.02419441456637</v>
+        <v>1.022312221221935</v>
       </c>
       <c r="D3">
-        <v>1.037765997691943</v>
+        <v>1.035381000679905</v>
       </c>
       <c r="E3">
-        <v>1.026407741774833</v>
+        <v>1.025035135938762</v>
       </c>
       <c r="F3">
-        <v>1.028496817297456</v>
+        <v>1.027682608586806</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.056065958388298</v>
+        <v>1.054686155114395</v>
       </c>
       <c r="J3">
-        <v>1.044046562579678</v>
+        <v>1.042212576311583</v>
       </c>
       <c r="K3">
-        <v>1.047937425513072</v>
+        <v>1.045580337221667</v>
       </c>
       <c r="L3">
-        <v>1.036713522600316</v>
+        <v>1.035357403073699</v>
       </c>
       <c r="M3">
-        <v>1.038777611046724</v>
+        <v>1.037973125965208</v>
       </c>
       <c r="N3">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.039262267437933</v>
+        <v>1.038625570056594</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.044963523005592</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.043305319816365</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023669030056033</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.027290671931549</v>
+        <v>1.02521205502581</v>
       </c>
       <c r="D4">
-        <v>1.03991358917732</v>
+        <v>1.037301731145528</v>
       </c>
       <c r="E4">
-        <v>1.028969521985162</v>
+        <v>1.027398298309427</v>
       </c>
       <c r="F4">
-        <v>1.030729688883589</v>
+        <v>1.029831307057594</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.057120969639469</v>
+        <v>1.055604666227097</v>
       </c>
       <c r="J4">
-        <v>1.046021136119297</v>
+        <v>1.043992105226812</v>
       </c>
       <c r="K4">
-        <v>1.049553024437831</v>
+        <v>1.046969873672768</v>
       </c>
       <c r="L4">
-        <v>1.038730444257609</v>
+        <v>1.03717692404047</v>
       </c>
       <c r="M4">
-        <v>1.040470857734283</v>
+        <v>1.039582547583106</v>
       </c>
       <c r="N4">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.040602359719265</v>
+        <v>1.039899321550874</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.046106764520646</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.044288799729266</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023999496778219</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.028582962166075</v>
+        <v>1.026422379792316</v>
       </c>
       <c r="D5">
-        <v>1.040813409980094</v>
+        <v>1.038106863812889</v>
       </c>
       <c r="E5">
-        <v>1.030041674655156</v>
+        <v>1.028387235435548</v>
       </c>
       <c r="F5">
-        <v>1.031661956112685</v>
+        <v>1.030728493557461</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.057560878895286</v>
+        <v>1.055987516802599</v>
       </c>
       <c r="J5">
-        <v>1.046846538322241</v>
+        <v>1.044735937172651</v>
       </c>
       <c r="K5">
-        <v>1.050230102443903</v>
+        <v>1.047552506897985</v>
       </c>
       <c r="L5">
-        <v>1.039574694598114</v>
+        <v>1.037938387345343</v>
       </c>
       <c r="M5">
-        <v>1.041177287628595</v>
+        <v>1.040254007241145</v>
       </c>
       <c r="N5">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.041161451319878</v>
+        <v>1.040430737097289</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.046592616633085</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.044708588607159</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.024138869718635</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.028807894826757</v>
+        <v>1.026632102252611</v>
       </c>
       <c r="D6">
-        <v>1.040973466244753</v>
+        <v>1.038249717012735</v>
       </c>
       <c r="E6">
-        <v>1.030230748413543</v>
+        <v>1.028560384908813</v>
       </c>
       <c r="F6">
-        <v>1.031821785293501</v>
+        <v>1.030881809455916</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.057640112558712</v>
+        <v>1.056056308031351</v>
       </c>
       <c r="J6">
-        <v>1.046993151617658</v>
+        <v>1.044867429394478</v>
       </c>
       <c r="K6">
-        <v>1.050352714268695</v>
+        <v>1.047657965011872</v>
       </c>
       <c r="L6">
-        <v>1.039725467256365</v>
+        <v>1.038073324047673</v>
       </c>
       <c r="M6">
-        <v>1.041299216429545</v>
+        <v>1.040369446159508</v>
       </c>
       <c r="N6">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.041257949695851</v>
+        <v>1.040522099264207</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.046687978920014</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.044792697573902</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.024165812826385</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.027332197767729</v>
+        <v>1.025248173282088</v>
       </c>
       <c r="D7">
-        <v>1.039951645351273</v>
+        <v>1.037334620786694</v>
       </c>
       <c r="E7">
-        <v>1.029010555529509</v>
+        <v>1.027432495972667</v>
       </c>
       <c r="F7">
-        <v>1.030752639464187</v>
+        <v>1.029851925041025</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.0571427454527</v>
+        <v>1.055623122480852</v>
       </c>
       <c r="J7">
-        <v>1.046055829296433</v>
+        <v>1.044021496715563</v>
       </c>
       <c r="K7">
-        <v>1.049587815790259</v>
+        <v>1.046999543296963</v>
       </c>
       <c r="L7">
-        <v>1.038768128061519</v>
+        <v>1.037207841451873</v>
       </c>
       <c r="M7">
-        <v>1.040490669524542</v>
+        <v>1.039600049034502</v>
       </c>
       <c r="N7">
-        <v>1.005712725503983</v>
+        <v>1.009672849942804</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.040618039420516</v>
+        <v>1.039913172787638</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.046151305358833</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.044331733140485</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.024011375333982</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.020998986902221</v>
+        <v>1.019318572884926</v>
       </c>
       <c r="D8">
-        <v>1.035563646285959</v>
+        <v>1.033411958859606</v>
       </c>
       <c r="E8">
-        <v>1.023776193105433</v>
+        <v>1.022605945477593</v>
       </c>
       <c r="F8">
-        <v>1.026192078902932</v>
+        <v>1.025464489217569</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.054977436744698</v>
+        <v>1.053737643255496</v>
       </c>
       <c r="J8">
-        <v>1.042015106740418</v>
+        <v>1.040380849659522</v>
       </c>
       <c r="K8">
-        <v>1.046282505921391</v>
+        <v>1.044157592426606</v>
       </c>
       <c r="L8">
-        <v>1.034643451150602</v>
+        <v>1.033488169678044</v>
       </c>
       <c r="M8">
-        <v>1.037028575303467</v>
+        <v>1.036310231019714</v>
       </c>
       <c r="N8">
-        <v>1.005712725503983</v>
+        <v>1.009744168770165</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.037878019196797</v>
+        <v>1.037309495555292</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.043818761028504</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.042327284614536</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.02333475263974</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.009212799119968</v>
+        <v>1.008320586489609</v>
       </c>
       <c r="D9">
-        <v>1.027409202270229</v>
+        <v>1.026150570783034</v>
       </c>
       <c r="E9">
-        <v>1.014059086213165</v>
+        <v>1.013688639433985</v>
       </c>
       <c r="F9">
-        <v>1.017803016356792</v>
+        <v>1.017415431077735</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.050847333890182</v>
+        <v>1.050144176685645</v>
       </c>
       <c r="J9">
-        <v>1.034444372236198</v>
+        <v>1.033582906481795</v>
       </c>
       <c r="K9">
-        <v>1.040072703224834</v>
+        <v>1.038833157111471</v>
       </c>
       <c r="L9">
-        <v>1.026928109568739</v>
+        <v>1.026563464470552</v>
       </c>
       <c r="M9">
-        <v>1.03061370769602</v>
+        <v>1.030232135706091</v>
       </c>
       <c r="N9">
-        <v>1.005712725503983</v>
+        <v>1.009756663622889</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.032801044869158</v>
+        <v>1.032499052886268</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.039424889030095</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.038559155523665</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.022038184505545</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.001131037201526</v>
+        <v>1.000781481396075</v>
       </c>
       <c r="D10">
-        <v>1.021864726366986</v>
+        <v>1.021216378461221</v>
       </c>
       <c r="E10">
-        <v>1.007466471272228</v>
+        <v>1.007637577465324</v>
       </c>
       <c r="F10">
-        <v>1.012327554075726</v>
+        <v>1.012175511959405</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.048002491588868</v>
+        <v>1.047664454036499</v>
       </c>
       <c r="J10">
-        <v>1.029299852381335</v>
+        <v>1.028964127906311</v>
       </c>
       <c r="K10">
-        <v>1.035850118041099</v>
+        <v>1.035212847164905</v>
       </c>
       <c r="L10">
-        <v>1.021702212290252</v>
+        <v>1.02187028889074</v>
       </c>
       <c r="M10">
-        <v>1.026477741669242</v>
+        <v>1.026328359316258</v>
       </c>
       <c r="N10">
-        <v>1.005712725503983</v>
+        <v>1.009913726784964</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.029579661799044</v>
+        <v>1.029461441378057</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.036456030087822</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.036017839890064</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.021165038190973</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9992153987725104</v>
+        <v>0.9988166063633527</v>
       </c>
       <c r="D11">
-        <v>1.020750168261708</v>
+        <v>1.020092938284301</v>
       </c>
       <c r="E11">
-        <v>1.006257267238484</v>
+        <v>1.006308572554246</v>
       </c>
       <c r="F11">
-        <v>1.012771235890502</v>
+        <v>1.012599030795185</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.047649676978716</v>
+        <v>1.047297261786742</v>
       </c>
       <c r="J11">
-        <v>1.028620854539633</v>
+        <v>1.028238698897036</v>
       </c>
       <c r="K11">
-        <v>1.035291096426573</v>
+        <v>1.034645624953033</v>
       </c>
       <c r="L11">
-        <v>1.021062137598685</v>
+        <v>1.021112491063511</v>
       </c>
       <c r="M11">
-        <v>1.027456258462511</v>
+        <v>1.027287195867711</v>
       </c>
       <c r="N11">
-        <v>1.005712725503983</v>
+        <v>1.010219287442624</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.03079416620522</v>
+        <v>1.030660439641162</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.03609357559969</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.035652809432863</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.021195648802898</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9990629317172632</v>
+        <v>0.998542637658283</v>
       </c>
       <c r="D12">
-        <v>1.020782442226433</v>
+        <v>1.020023381619369</v>
       </c>
       <c r="E12">
-        <v>1.006391074524188</v>
+        <v>1.006267814145479</v>
       </c>
       <c r="F12">
-        <v>1.013890981232936</v>
+        <v>1.013667511531834</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.047825254770214</v>
+        <v>1.047405492305713</v>
       </c>
       <c r="J12">
-        <v>1.028907002970728</v>
+        <v>1.028408803998084</v>
       </c>
       <c r="K12">
-        <v>1.035522028219601</v>
+        <v>1.034776763268343</v>
       </c>
       <c r="L12">
-        <v>1.02139684745163</v>
+        <v>1.021275909898298</v>
       </c>
       <c r="M12">
-        <v>1.028756804602204</v>
+        <v>1.028537465862659</v>
       </c>
       <c r="N12">
-        <v>1.005712725503983</v>
+        <v>1.01035478389643</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.03215153223605</v>
+        <v>1.031978097399908</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.03625685133177</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.03574552634764</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.021349659412935</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.000280299825551</v>
+        <v>0.9995712686549775</v>
       </c>
       <c r="D13">
-        <v>1.021724882472745</v>
+        <v>1.020782280715699</v>
       </c>
       <c r="E13">
-        <v>1.007591501440262</v>
+        <v>1.00723513718086</v>
       </c>
       <c r="F13">
-        <v>1.015635461769613</v>
+        <v>1.015332238925571</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.048439265650399</v>
+        <v>1.047904688085445</v>
       </c>
       <c r="J13">
-        <v>1.029980223933897</v>
+        <v>1.029301096794052</v>
       </c>
       <c r="K13">
-        <v>1.036404699109851</v>
+        <v>1.035479134604634</v>
       </c>
       <c r="L13">
-        <v>1.022531140886505</v>
+        <v>1.022181450944657</v>
       </c>
       <c r="M13">
-        <v>1.030426069333786</v>
+        <v>1.030128408568445</v>
       </c>
       <c r="N13">
-        <v>1.005712725503983</v>
+        <v>1.010324862518226</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.033749517596465</v>
+        <v>1.033514211857816</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.036878439160888</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.036239383794926</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.021622268863777</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.001731151949943</v>
+        <v>1.000864103568208</v>
       </c>
       <c r="D14">
-        <v>1.022781623293355</v>
+        <v>1.02167765386117</v>
       </c>
       <c r="E14">
-        <v>1.008894330348352</v>
+        <v>1.008353379330523</v>
       </c>
       <c r="F14">
-        <v>1.017107474132643</v>
+        <v>1.016737584266526</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.049056479574571</v>
+        <v>1.0484225991889</v>
       </c>
       <c r="J14">
-        <v>1.031067641294417</v>
+        <v>1.030236581700498</v>
       </c>
       <c r="K14">
-        <v>1.037302753661403</v>
+        <v>1.036218470408644</v>
       </c>
       <c r="L14">
-        <v>1.023667191004255</v>
+        <v>1.023136228519453</v>
       </c>
       <c r="M14">
-        <v>1.031730378054661</v>
+        <v>1.031367173947442</v>
       </c>
       <c r="N14">
-        <v>1.005712725503983</v>
+        <v>1.010230087706879</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.034954556878507</v>
+        <v>1.03466747691438</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.037514811045675</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.036763666236092</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.021863267673939</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.002407735621999</v>
+        <v>1.001483824726082</v>
       </c>
       <c r="D15">
-        <v>1.023259362774511</v>
+        <v>1.022094548263567</v>
       </c>
       <c r="E15">
-        <v>1.009469502846821</v>
+        <v>1.008866355771483</v>
       </c>
       <c r="F15">
-        <v>1.017655705514549</v>
+        <v>1.017261760184498</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.049317519236773</v>
+        <v>1.048646731863023</v>
       </c>
       <c r="J15">
-        <v>1.031530207032835</v>
+        <v>1.03064428877255</v>
       </c>
       <c r="K15">
-        <v>1.03768601104084</v>
+        <v>1.036541802641439</v>
       </c>
       <c r="L15">
-        <v>1.024144072814649</v>
+        <v>1.023551970921103</v>
       </c>
       <c r="M15">
-        <v>1.032182046742589</v>
+        <v>1.031795163654081</v>
       </c>
       <c r="N15">
-        <v>1.005712725503983</v>
+        <v>1.01017436097146</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.035349215663217</v>
+        <v>1.035043427640581</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.037791637012325</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.036998693540373</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021955086254897</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.00556329629082</v>
+        <v>1.004455803619924</v>
       </c>
       <c r="D16">
-        <v>1.025400496841699</v>
+        <v>1.024021041636968</v>
       </c>
       <c r="E16">
-        <v>1.011990929612608</v>
+        <v>1.01121593454667</v>
       </c>
       <c r="F16">
-        <v>1.019664249955457</v>
+        <v>1.01919190776351</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.050401910343928</v>
+        <v>1.049604222346507</v>
       </c>
       <c r="J16">
-        <v>1.033481828423324</v>
+        <v>1.032417520636603</v>
       </c>
       <c r="K16">
-        <v>1.039290420796646</v>
+        <v>1.03793427751598</v>
       </c>
       <c r="L16">
-        <v>1.026110955357427</v>
+        <v>1.025349500466765</v>
       </c>
       <c r="M16">
-        <v>1.033651648057379</v>
+        <v>1.033187395405448</v>
       </c>
       <c r="N16">
-        <v>1.005712725503983</v>
+        <v>1.009896956512875</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.036471942694822</v>
+        <v>1.036104991988482</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.038929153409749</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.037986659369214</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.022274082981829</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.007241604261429</v>
+        <v>1.006072516284145</v>
       </c>
       <c r="D17">
-        <v>1.026504276196883</v>
+        <v>1.025041466891668</v>
       </c>
       <c r="E17">
-        <v>1.013261599299062</v>
+        <v>1.012447097766242</v>
       </c>
       <c r="F17">
-        <v>1.020444278530759</v>
+        <v>1.019944937581577</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.05091710888845</v>
+        <v>1.050071982012565</v>
       </c>
       <c r="J17">
-        <v>1.034424314742405</v>
+        <v>1.033299320263147</v>
       </c>
       <c r="K17">
-        <v>1.040063018278008</v>
+        <v>1.038624226557247</v>
       </c>
       <c r="L17">
-        <v>1.027041032599779</v>
+        <v>1.026240348148621</v>
       </c>
       <c r="M17">
-        <v>1.034103095849199</v>
+        <v>1.033612069362987</v>
       </c>
       <c r="N17">
-        <v>1.005712725503983</v>
+        <v>1.009769981040597</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.03669931502457</v>
+        <v>1.036311163097489</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.039477978456056</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.038477295232669</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.022395009909787</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.007721788076377</v>
+        <v>1.006604121021219</v>
       </c>
       <c r="D18">
-        <v>1.026743935108615</v>
+        <v>1.025316654235394</v>
       </c>
       <c r="E18">
-        <v>1.01348482328475</v>
+        <v>1.012758109745725</v>
       </c>
       <c r="F18">
-        <v>1.020055410247954</v>
+        <v>1.019576529702286</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.050940733564963</v>
+        <v>1.050120872879478</v>
       </c>
       <c r="J18">
-        <v>1.03449621641164</v>
+        <v>1.033419933526139</v>
       </c>
       <c r="K18">
-        <v>1.040116466802019</v>
+        <v>1.038712244068406</v>
       </c>
       <c r="L18">
-        <v>1.027074781114915</v>
+        <v>1.026360196441483</v>
       </c>
       <c r="M18">
-        <v>1.0335367135932</v>
+        <v>1.033065691208208</v>
       </c>
       <c r="N18">
-        <v>1.005712725503983</v>
+        <v>1.009714664310362</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.036012908806234</v>
+        <v>1.035640491848354</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.039504182230566</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.038526799009108</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.022332586873928</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.007093164100705</v>
+        <v>1.006129224540597</v>
       </c>
       <c r="D19">
-        <v>1.026194851999404</v>
+        <v>1.024911739090733</v>
       </c>
       <c r="E19">
-        <v>1.012746904943374</v>
+        <v>1.012220434359424</v>
       </c>
       <c r="F19">
-        <v>1.018503469327283</v>
+        <v>1.018088403369082</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.050513063680635</v>
+        <v>1.049784782136271</v>
       </c>
       <c r="J19">
-        <v>1.033757775652705</v>
+        <v>1.03282937452911</v>
       </c>
       <c r="K19">
-        <v>1.039514040484864</v>
+        <v>1.038251570790246</v>
       </c>
       <c r="L19">
-        <v>1.02628579548296</v>
+        <v>1.025768078891972</v>
       </c>
       <c r="M19">
-        <v>1.031947400595687</v>
+        <v>1.031539135304563</v>
       </c>
       <c r="N19">
-        <v>1.005712725503983</v>
+        <v>1.009699109624638</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.034428893226782</v>
+        <v>1.034105989023287</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.039084622262586</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.038208094114396</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.022109872487302</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.003309378961419</v>
+        <v>1.002800384562027</v>
       </c>
       <c r="D20">
-        <v>1.023382824871573</v>
+        <v>1.022559819105446</v>
       </c>
       <c r="E20">
-        <v>1.009264425962022</v>
+        <v>1.009271405214514</v>
       </c>
       <c r="F20">
-        <v>1.013791987485403</v>
+        <v>1.013570676788716</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.048794631680161</v>
+        <v>1.04835133714674</v>
       </c>
       <c r="J20">
-        <v>1.030713322976334</v>
+        <v>1.030223781262039</v>
       </c>
       <c r="K20">
-        <v>1.037026609753242</v>
+        <v>1.036217250852592</v>
       </c>
       <c r="L20">
-        <v>1.023146304524597</v>
+        <v>1.02315316395141</v>
       </c>
       <c r="M20">
-        <v>1.027596580507846</v>
+        <v>1.027379026867656</v>
       </c>
       <c r="N20">
-        <v>1.005712725503983</v>
+        <v>1.009781698284326</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.030454451434633</v>
+        <v>1.030282278560398</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.037329853822476</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.036774093892773</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.021423055507821</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9968700860743445</v>
+        <v>0.9968382507339204</v>
       </c>
       <c r="D21">
-        <v>1.018933379447956</v>
+        <v>1.018633316039411</v>
       </c>
       <c r="E21">
-        <v>1.003955221262473</v>
+        <v>1.004451150907472</v>
       </c>
       <c r="F21">
-        <v>1.009111528100641</v>
+        <v>1.009097652147789</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.046442362556115</v>
+        <v>1.046313521540913</v>
       </c>
       <c r="J21">
-        <v>1.02649925308299</v>
+        <v>1.026468760760025</v>
       </c>
       <c r="K21">
-        <v>1.033564717169402</v>
+        <v>1.033270069318588</v>
       </c>
       <c r="L21">
-        <v>1.018862046217535</v>
+        <v>1.019348682729947</v>
       </c>
       <c r="M21">
-        <v>1.023922311743268</v>
+        <v>1.023908692526638</v>
       </c>
       <c r="N21">
-        <v>1.005712725503983</v>
+        <v>1.010338911748788</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.027505176106615</v>
+        <v>1.027494397210685</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.034885419389109</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.034693925649603</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020673936236104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9927852665003962</v>
+        <v>0.9930576030277481</v>
       </c>
       <c r="D22">
-        <v>1.01611803367655</v>
+        <v>1.016149193394321</v>
       </c>
       <c r="E22">
-        <v>1.000605027159171</v>
+        <v>1.001410216873162</v>
       </c>
       <c r="F22">
-        <v>1.006274185442351</v>
+        <v>1.006393013915865</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.044950758599102</v>
+        <v>1.045020830586177</v>
       </c>
       <c r="J22">
-        <v>1.023845420353696</v>
+        <v>1.024105558247025</v>
       </c>
       <c r="K22">
-        <v>1.031376811598048</v>
+        <v>1.0314073793999</v>
       </c>
       <c r="L22">
-        <v>1.016164507864218</v>
+        <v>1.0169537887618</v>
       </c>
       <c r="M22">
-        <v>1.021722365805977</v>
+        <v>1.021838878962329</v>
       </c>
       <c r="N22">
-        <v>1.005712725503983</v>
+        <v>1.01067819198903</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.02576403203988</v>
+        <v>1.025856246321992</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.033324977599134</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.033362136246259</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020201519540064</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9949351138689946</v>
+        <v>0.9950507622130902</v>
       </c>
       <c r="D23">
-        <v>1.017590287106957</v>
+        <v>1.017449861224491</v>
       </c>
       <c r="E23">
-        <v>1.002359352601701</v>
+        <v>1.003007076851659</v>
       </c>
       <c r="F23">
-        <v>1.007772855545271</v>
+        <v>1.007823287880912</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.045729833053963</v>
+        <v>1.045697157592276</v>
       </c>
       <c r="J23">
-        <v>1.025234380061338</v>
+        <v>1.025345009019429</v>
       </c>
       <c r="K23">
-        <v>1.032516214955917</v>
+        <v>1.032378385821787</v>
       </c>
       <c r="L23">
-        <v>1.017572483189876</v>
+        <v>1.018207761090828</v>
       </c>
       <c r="M23">
-        <v>1.02288260606235</v>
+        <v>1.02293208213279</v>
       </c>
       <c r="N23">
-        <v>1.005712725503983</v>
+        <v>1.010446637671561</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.026682303083484</v>
+        <v>1.026721460844824</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.034120941629648</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.034038086262839</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020442995226994</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.003211917480203</v>
+        <v>1.002731798939229</v>
       </c>
       <c r="D24">
-        <v>1.023284526517102</v>
+        <v>1.02248771041827</v>
       </c>
       <c r="E24">
-        <v>1.009141054733304</v>
+        <v>1.009185830816384</v>
       </c>
       <c r="F24">
-        <v>1.013562422699634</v>
+        <v>1.013353511347521</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.048717997330032</v>
+        <v>1.0482916084049</v>
       </c>
       <c r="J24">
-        <v>1.030586885424516</v>
+        <v>1.030125094523534</v>
       </c>
       <c r="K24">
-        <v>1.036914716846398</v>
+        <v>1.036131099249745</v>
       </c>
       <c r="L24">
-        <v>1.023009522580398</v>
+        <v>1.023053530693117</v>
       </c>
       <c r="M24">
-        <v>1.027355480772047</v>
+        <v>1.027150113441188</v>
       </c>
       <c r="N24">
-        <v>1.005712725503983</v>
+        <v>1.009776345404437</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.03022234402238</v>
+        <v>1.030059807168764</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.037223388862363</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.036683151321874</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.021378872259709</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.012375584250264</v>
+        <v>1.011262018233964</v>
       </c>
       <c r="D25">
-        <v>1.029608777337061</v>
+        <v>1.028103137896814</v>
       </c>
       <c r="E25">
-        <v>1.016674409911895</v>
+        <v>1.016076772691906</v>
       </c>
       <c r="F25">
-        <v>1.020032146655186</v>
+        <v>1.019548820140349</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.051977715278299</v>
+        <v>1.051125805552881</v>
       </c>
       <c r="J25">
-        <v>1.036493519746337</v>
+        <v>1.035416225165785</v>
       </c>
       <c r="K25">
-        <v>1.041764207267393</v>
+        <v>1.040280308694717</v>
       </c>
       <c r="L25">
-        <v>1.02901927639004</v>
+        <v>1.028430540391632</v>
       </c>
       <c r="M25">
-        <v>1.032327249287636</v>
+        <v>1.031851060328306</v>
       </c>
       <c r="N25">
-        <v>1.005712725503983</v>
+        <v>1.009712335287388</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.034157211530319</v>
+        <v>1.033780336440582</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.040649346710489</v>
+        <v>1.039613651897809</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022401174764196</v>
       </c>
     </row>
   </sheetData>
